--- a/Play_by_play.xlsx
+++ b/Play_by_play.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edubge-my.sharepoint.com/personal/marczi_mate_18_unibge_hu/Documents/EGYETEM_drive/!2023_23_2/Mesterséges int/beadando/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MarcziMate\OneDrive - Budapesti Gazdasági Egyetem (EDU)\EGYETEM_drive\!2023_23_2\Mesterséges int\beadando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_E1F3445FBA3702966F08B364D87ED86B35FF5296" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8EAFED0-DDCF-4049-9E80-C99FA612BFFE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7B0751-8E23-4BB2-8638-32CB6EB41F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Play types" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Play by play stat'!$A$1:$A$336</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Play by play stat'!$A$1:$N$335</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Play types'!$A$1:$C$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -343,9 +343,6 @@
     <t>Play iránya</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Play neve</t>
   </si>
   <si>
@@ -689,6 +686,9 @@
   </si>
   <si>
     <t>CZIRÓK PASS</t>
+  </si>
+  <si>
+    <t>Palya_iranyitosz</t>
   </si>
 </sst>
 </file>
@@ -1114,8 +1114,8 @@
   <dimension ref="A1:N336"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C204" sqref="C204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1131,7 +1131,7 @@
     <col min="9" max="9" width="8.42578125" customWidth="1"/>
     <col min="10" max="10" width="10.7109375" customWidth="1"/>
     <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="20" width="18.85546875" customWidth="1"/>
+    <col min="12" max="18" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.25" customHeight="1">
@@ -1175,12 +1175,12 @@
         <v>21</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>101</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="12.75">
       <c r="A2" s="2">
-        <v>45053.749421296299</v>
+        <v>44688.749421296299</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>22</v>
@@ -1209,10 +1209,13 @@
       <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="N2">
+        <v>1194</v>
+      </c>
     </row>
     <row r="3" spans="1:14" ht="12.75">
       <c r="A3" s="2">
-        <v>45053.749918981484</v>
+        <v>44688.749918981484</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>27</v>
@@ -1241,10 +1244,13 @@
       <c r="M3" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="N3">
+        <v>1194</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="12.75">
       <c r="A4" s="2">
-        <v>45053.75267361111</v>
+        <v>44688.75267361111</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>30</v>
@@ -1274,12 +1280,12 @@
         <v>34</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="12.75">
       <c r="A5" s="2">
-        <v>45053.753310185188</v>
+        <v>44688.753310185188</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>35</v>
@@ -1308,10 +1314,13 @@
       <c r="M5" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N5">
+        <v>1194</v>
+      </c>
     </row>
     <row r="6" spans="1:14" ht="12.75">
       <c r="A6" s="2">
-        <v>45053.753993055558</v>
+        <v>44688.753993055558</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>38</v>
@@ -1340,10 +1349,13 @@
       <c r="M6" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="N6">
+        <v>1194</v>
+      </c>
     </row>
     <row r="7" spans="1:14" ht="12.75">
       <c r="A7" s="2">
-        <v>45053.755393518521</v>
+        <v>44688.755393518521</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>39</v>
@@ -1372,10 +1384,13 @@
       <c r="M7" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N7">
+        <v>1194</v>
+      </c>
     </row>
     <row r="8" spans="1:14" ht="12.75">
       <c r="A8" s="2">
-        <v>45053.756562499999</v>
+        <v>44688.756562499999</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>42</v>
@@ -1404,10 +1419,13 @@
       <c r="M8" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="N8">
+        <v>1194</v>
+      </c>
     </row>
     <row r="9" spans="1:14" ht="12.75">
       <c r="A9" s="2">
-        <v>45053.757037037038</v>
+        <v>44688.757037037038</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>42</v>
@@ -1439,10 +1457,13 @@
       <c r="M9" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="N9">
+        <v>1194</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="12.75">
       <c r="A10" s="2">
-        <v>45053.758483796293</v>
+        <v>44688.758483796293</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>47</v>
@@ -1471,10 +1492,13 @@
       <c r="M10" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="N10">
+        <v>1194</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="12.75">
       <c r="A11" s="2">
-        <v>45053.760613425926</v>
+        <v>44688.760613425926</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>49</v>
@@ -1503,10 +1527,13 @@
       <c r="M11" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N11">
+        <v>1194</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="12.75">
       <c r="A12" s="2">
-        <v>45053.761145833334</v>
+        <v>44688.761145833334</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>49</v>
@@ -1535,10 +1562,13 @@
       <c r="M12" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N12">
+        <v>1194</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="12.75">
       <c r="A13" s="2">
-        <v>45053.766041666669</v>
+        <v>44688.766041666669</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>53</v>
@@ -1567,10 +1597,13 @@
       <c r="M13" s="1" t="s">
         <v>46</v>
       </c>
+      <c r="N13">
+        <v>1194</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="12.75">
       <c r="A14" s="2">
-        <v>45053.76662037037</v>
+        <v>44688.76662037037</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>55</v>
@@ -1599,10 +1632,13 @@
       <c r="M14" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="N14">
+        <v>1194</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="12.75">
       <c r="A15" s="2">
-        <v>45053.767060185186</v>
+        <v>44688.767060185186</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>57</v>
@@ -1631,10 +1667,13 @@
       <c r="M15" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="N15">
+        <v>1194</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="12.75">
       <c r="A16" s="2">
-        <v>45053.767500000002</v>
+        <v>44688.767500000002</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>57</v>
@@ -1663,10 +1702,13 @@
       <c r="M16" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" ht="12.75">
+      <c r="N16">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="12.75">
       <c r="A17" s="2">
-        <v>45053.768125000002</v>
+        <v>44688.768125000002</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>57</v>
@@ -1695,10 +1737,13 @@
       <c r="M17" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" ht="12.75">
+      <c r="N17">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="12.75">
       <c r="A18" s="2">
-        <v>45053.768888888888</v>
+        <v>44688.768888888888</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>60</v>
@@ -1727,10 +1772,13 @@
       <c r="M18" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" ht="12.75">
+      <c r="N18">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="12.75">
       <c r="A19" s="2">
-        <v>45053.77039351852</v>
+        <v>44688.77039351852</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>61</v>
@@ -1759,10 +1807,13 @@
       <c r="M19" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" ht="12.75">
+      <c r="N19">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="12.75">
       <c r="A20" s="2">
-        <v>45053.774664351855</v>
+        <v>44688.774664351855</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>61</v>
@@ -1791,10 +1842,13 @@
       <c r="M20" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" ht="12.75">
+      <c r="N20">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="12.75">
       <c r="A21" s="2">
-        <v>45053.775775462964</v>
+        <v>44688.775775462964</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>49</v>
@@ -1823,10 +1877,13 @@
       <c r="M21" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" ht="12.75">
+      <c r="N21">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="12.75">
       <c r="A22" s="2">
-        <v>45053.776828703703</v>
+        <v>44688.776828703703</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>30</v>
@@ -1855,10 +1912,13 @@
       <c r="M22" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" ht="12.75">
+      <c r="N22">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="12.75">
       <c r="A23" s="2">
-        <v>45053.777268518519</v>
+        <v>44688.777268518519</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>64</v>
@@ -1887,10 +1947,13 @@
       <c r="M23" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" ht="12.75">
+      <c r="N23">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="12.75">
       <c r="A24" s="2">
-        <v>45053.777881944443</v>
+        <v>44688.777881944443</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>65</v>
@@ -1922,10 +1985,13 @@
       <c r="M24" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="12.75">
+      <c r="N24">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="12.75">
       <c r="A25" s="2">
-        <v>45053.784699074073</v>
+        <v>44688.784699074073</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>67</v>
@@ -1954,10 +2020,13 @@
       <c r="M25" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="12.75">
+      <c r="N25">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75">
       <c r="A26" s="2">
-        <v>45053.785254629627</v>
+        <v>44688.785254629627</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>69</v>
@@ -1986,10 +2055,13 @@
       <c r="M26" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="12.75">
+      <c r="N26">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="12.75">
       <c r="A27" s="2">
-        <v>45053.786134259259</v>
+        <v>44688.786134259259</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>70</v>
@@ -2021,10 +2093,13 @@
       <c r="M27" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="12.75">
+      <c r="N27">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="12.75">
       <c r="A28" s="2">
-        <v>45053.797627314816</v>
+        <v>44688.797627314816</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>73</v>
@@ -2053,10 +2128,13 @@
       <c r="M28" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" ht="12.75">
+      <c r="N28">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="12.75">
       <c r="A29" s="2">
-        <v>45053.798333333332</v>
+        <v>44688.798333333332</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>49</v>
@@ -2085,10 +2163,13 @@
       <c r="M29" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" ht="12.75">
+      <c r="N29">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="12.75">
       <c r="A30" s="2">
-        <v>45053.79928240741</v>
+        <v>44688.79928240741</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>76</v>
@@ -2120,10 +2201,13 @@
       <c r="M30" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" ht="12.75">
+      <c r="N30">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="12.75">
       <c r="A31" s="2">
-        <v>45053.800185185188</v>
+        <v>44688.800185185188</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>69</v>
@@ -2152,10 +2236,13 @@
       <c r="M31" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="12.75">
+      <c r="N31">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="12.75">
       <c r="A32" s="2">
-        <v>45053.800682870373</v>
+        <v>44688.800682870373</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>78</v>
@@ -2184,10 +2271,13 @@
       <c r="M32" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" ht="12.75">
+      <c r="N32">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="12.75">
       <c r="A33" s="2">
-        <v>45053.801689814813</v>
+        <v>44688.801689814813</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>79</v>
@@ -2219,10 +2309,13 @@
       <c r="M33" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" ht="12.75">
+      <c r="N33">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="12.75">
       <c r="A34" s="2">
-        <v>45053.804849537039</v>
+        <v>44688.804849537039</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>81</v>
@@ -2251,10 +2344,13 @@
       <c r="M34" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" ht="12.75">
+      <c r="N34">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="12.75">
       <c r="A35" s="2">
-        <v>45053.806377314817</v>
+        <v>44688.806377314817</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>53</v>
@@ -2286,10 +2382,13 @@
       <c r="M35" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" ht="12.75">
+      <c r="N35">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="12.75">
       <c r="A36" s="2">
-        <v>45053.806840277779</v>
+        <v>44688.806840277779</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>53</v>
@@ -2318,10 +2417,13 @@
       <c r="M36" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" ht="12.75">
+      <c r="N36">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="12.75">
       <c r="A37" s="2">
-        <v>45053.818506944444</v>
+        <v>44688.818506944444</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>83</v>
@@ -2350,10 +2452,13 @@
       <c r="M37" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="12.75">
+      <c r="N37">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="12.75">
       <c r="A38" s="2">
-        <v>45053.819166666668</v>
+        <v>44688.819166666668</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>49</v>
@@ -2382,10 +2487,13 @@
       <c r="M38" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="12.75">
+      <c r="N38">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="12.75">
       <c r="A39" s="2">
-        <v>45053.819861111115</v>
+        <v>44688.819861111115</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>84</v>
@@ -2414,10 +2522,13 @@
       <c r="M39" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="12.75">
+      <c r="N39">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="12.75">
       <c r="A40" s="2">
-        <v>45053.828969907408</v>
+        <v>44688.828969907408</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>85</v>
@@ -2446,10 +2557,13 @@
       <c r="M40" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" ht="12.75">
+      <c r="N40">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="12.75">
       <c r="A41" s="2">
-        <v>45053.829641203702</v>
+        <v>44688.829641203702</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>86</v>
@@ -2478,10 +2592,13 @@
       <c r="M41" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" ht="12.75">
+      <c r="N41">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="12.75">
       <c r="A42" s="2">
-        <v>45053.830821759257</v>
+        <v>44688.830821759257</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>87</v>
@@ -2510,10 +2627,13 @@
       <c r="M42" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" ht="12.75">
+      <c r="N42">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="12.75">
       <c r="A43" s="2">
-        <v>45053.832199074073</v>
+        <v>44688.832199074073</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>88</v>
@@ -2542,10 +2662,13 @@
       <c r="M43" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" ht="12.75">
+      <c r="N43">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="12.75">
       <c r="A44" s="2">
-        <v>45053.834710648145</v>
+        <v>44688.834710648145</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>89</v>
@@ -2574,10 +2697,13 @@
       <c r="M44" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" ht="12.75">
+      <c r="N44">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="12.75">
       <c r="A45" s="2">
-        <v>45053.835497685184</v>
+        <v>44688.835497685184</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>91</v>
@@ -2609,10 +2735,13 @@
       <c r="M45" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" ht="12.75">
+      <c r="N45">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="12.75">
       <c r="A46" s="2">
-        <v>45053.836041666669</v>
+        <v>44688.836041666669</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>57</v>
@@ -2644,10 +2773,13 @@
       <c r="M46" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" ht="12.75">
+      <c r="N46">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="12.75">
       <c r="A47" s="2">
-        <v>45053.847384259258</v>
+        <v>44688.847384259258</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>93</v>
@@ -2676,10 +2808,13 @@
       <c r="M47" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="12.75">
+      <c r="N47">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="12.75">
       <c r="A48" s="2">
-        <v>45053.848344907405</v>
+        <v>44688.848344907405</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>95</v>
@@ -2708,10 +2843,13 @@
       <c r="M48" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" ht="12.75">
+      <c r="N48">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="12.75">
       <c r="A49" s="2">
-        <v>45053.848865740743</v>
+        <v>44688.848865740743</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>73</v>
@@ -2740,10 +2878,13 @@
       <c r="M49" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" ht="12.75">
+      <c r="N49">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="12.75">
       <c r="A50" s="2">
-        <v>45053.849953703706</v>
+        <v>44688.849953703706</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>70</v>
@@ -2772,10 +2913,13 @@
       <c r="M50" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" ht="12.75">
+      <c r="N50">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="12.75">
       <c r="A51" s="2">
-        <v>45053.850868055553</v>
+        <v>44688.850868055553</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>84</v>
@@ -2804,10 +2948,13 @@
       <c r="M51" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" ht="12.75">
+      <c r="N51">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="12.75">
       <c r="A52" s="2">
-        <v>45053.851273148146</v>
+        <v>44688.851273148146</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>30</v>
@@ -2836,10 +2983,13 @@
       <c r="M52" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" ht="12.75">
+      <c r="N52">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="12.75">
       <c r="A53" s="2">
-        <v>45053.851770833331</v>
+        <v>44688.851770833331</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>78</v>
@@ -2868,10 +3018,13 @@
       <c r="M53" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" ht="12.75">
+      <c r="N53">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="12.75">
       <c r="A54" s="2">
-        <v>45053.852546296293</v>
+        <v>44688.852546296293</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>96</v>
@@ -2903,10 +3056,13 @@
       <c r="M54" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" ht="12.75">
+      <c r="N54">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="12.75">
       <c r="A55" s="2">
-        <v>45053.854641203703</v>
+        <v>44688.854641203703</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>97</v>
@@ -2938,13 +3094,16 @@
       <c r="M55" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N55">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="15.75" customHeight="1">
       <c r="A56" s="2">
-        <v>45068.770810185182</v>
+        <v>44703.770810185182</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C56" s="1">
         <v>1</v>
@@ -2970,13 +3129,16 @@
       <c r="M56" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N56">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1">
       <c r="A57" s="2">
-        <v>45068.771608796298</v>
+        <v>44703.771608796298</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C57" s="1">
         <v>2</v>
@@ -3002,10 +3164,13 @@
       <c r="M57" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N57">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1">
       <c r="A58" s="2">
-        <v>45068.772372685184</v>
+        <v>44703.772372685184</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>86</v>
@@ -3034,13 +3199,16 @@
       <c r="M58" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N58">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1">
       <c r="A59" s="2">
-        <v>45068.772847222222</v>
+        <v>44703.772847222222</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C59" s="1">
         <v>1</v>
@@ -3052,7 +3220,7 @@
         <v>54</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -3066,13 +3234,16 @@
       <c r="M59" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N59">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1">
       <c r="A60" s="2">
-        <v>45068.773564814815</v>
+        <v>44703.773564814815</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C60" s="1">
         <v>2</v>
@@ -3098,10 +3269,13 @@
       <c r="M60" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N60">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1">
       <c r="A61" s="2">
-        <v>45068.774178240739</v>
+        <v>44703.774178240739</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>91</v>
@@ -3130,13 +3304,16 @@
       <c r="M61" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N61">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1">
       <c r="A62" s="2">
-        <v>45068.774641203701</v>
+        <v>44703.774641203701</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C62" s="1">
         <v>4</v>
@@ -3145,10 +3322,10 @@
         <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="F62" s="1" t="s">
-        <v>161</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>32</v>
@@ -3165,13 +3342,16 @@
       <c r="M62" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N62">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1">
       <c r="A63" s="2">
-        <v>45068.780856481484</v>
+        <v>44703.780856481484</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C63" s="1">
         <v>1</v>
@@ -3183,7 +3363,7 @@
         <v>54</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H63" s="1">
         <v>11</v>
@@ -3197,10 +3377,13 @@
       <c r="M63" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N63">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1">
       <c r="A64" s="2">
-        <v>45068.781319444446</v>
+        <v>44703.781319444446</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>65</v>
@@ -3229,13 +3412,16 @@
       <c r="M64" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N64">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="15.75" customHeight="1">
       <c r="A65" s="2">
-        <v>45068.782118055555</v>
+        <v>44703.782118055555</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C65" s="1">
         <v>2</v>
@@ -3261,13 +3447,16 @@
       <c r="M65" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N65">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="15.75" customHeight="1">
       <c r="A66" s="2">
-        <v>45068.782534722224</v>
+        <v>44703.782534722224</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C66" s="1">
         <v>3</v>
@@ -3296,13 +3485,16 @@
       <c r="M66" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N66">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="15.75" customHeight="1">
       <c r="A67" s="2">
-        <v>45068.782905092594</v>
+        <v>44703.782905092594</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C67" s="1">
         <v>3</v>
@@ -3314,7 +3506,7 @@
         <v>54</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H67" s="1">
         <v>0</v>
@@ -3328,13 +3520,16 @@
       <c r="M67" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N67">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="15.75" customHeight="1">
       <c r="A68" s="2">
-        <v>45068.783449074072</v>
+        <v>44703.783449074072</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C68" s="1">
         <v>4</v>
@@ -3346,10 +3541,10 @@
         <v>54</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H68" s="1">
         <v>0</v>
@@ -3363,13 +3558,16 @@
       <c r="M68" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N68">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="15.75" customHeight="1">
       <c r="A69" s="2">
-        <v>45068.790648148148</v>
+        <v>44703.790648148148</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C69" s="1">
         <v>1</v>
@@ -3381,10 +3579,10 @@
         <v>54</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H69" s="1">
         <v>13</v>
@@ -3398,13 +3596,16 @@
       <c r="M69" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N69">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15.75" customHeight="1">
       <c r="A70" s="2">
-        <v>45068.791030092594</v>
+        <v>44703.791030092594</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C70" s="1">
         <v>1</v>
@@ -3430,10 +3631,13 @@
       <c r="M70" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N70">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="15.75" customHeight="1">
       <c r="A71" s="2">
-        <v>45068.791365740741</v>
+        <v>44703.791365740741</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>27</v>
@@ -3448,7 +3652,7 @@
         <v>28</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H71" s="1">
         <v>8</v>
@@ -3462,10 +3666,13 @@
       <c r="M71" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N71">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="15.75" customHeight="1">
       <c r="A72" s="2">
-        <v>45068.791863425926</v>
+        <v>44703.791863425926</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>30</v>
@@ -3480,7 +3687,7 @@
         <v>36</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H72" s="1">
         <v>-5</v>
@@ -3494,10 +3701,13 @@
       <c r="M72" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N72">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="15.75" customHeight="1">
       <c r="A73" s="2">
-        <v>45068.792534722219</v>
+        <v>44703.792534722219</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>96</v>
@@ -3529,10 +3739,13 @@
       <c r="M73" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N73">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="15.75" customHeight="1">
       <c r="A74" s="2">
-        <v>45068.793414351851</v>
+        <v>44703.793414351851</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>70</v>
@@ -3547,7 +3760,7 @@
         <v>54</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H74" s="1">
         <v>0</v>
@@ -3561,10 +3774,13 @@
       <c r="M74" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N74">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="15.75" customHeight="1">
       <c r="A75" s="2">
-        <v>45068.793854166666</v>
+        <v>44703.793854166666</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>70</v>
@@ -3579,7 +3795,7 @@
         <v>54</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H75" s="1">
         <v>21</v>
@@ -3593,13 +3809,16 @@
       <c r="M75" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N75">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" ht="15.75" customHeight="1">
       <c r="A76" s="2">
-        <v>45068.812326388892</v>
+        <v>44703.812326388892</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C76" s="1">
         <v>2</v>
@@ -3625,13 +3844,16 @@
       <c r="M76" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N76">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="15.75" customHeight="1">
       <c r="A77" s="2">
-        <v>45068.812754629631</v>
+        <v>44703.812754629631</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77" s="1">
         <v>3</v>
@@ -3657,10 +3879,13 @@
       <c r="M77" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N77">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="15.75" customHeight="1">
       <c r="A78" s="2">
-        <v>45068.813599537039</v>
+        <v>44703.813599537039</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>78</v>
@@ -3689,13 +3914,16 @@
       <c r="M78" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N78">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="15.75" customHeight="1">
       <c r="A79" s="2">
-        <v>45068.814074074071</v>
+        <v>44703.814074074071</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C79" s="1">
         <v>2</v>
@@ -3721,13 +3949,16 @@
       <c r="M79" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N79">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="15.75" customHeight="1">
       <c r="A80" s="2">
-        <v>45068.815671296295</v>
+        <v>44703.815671296295</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C80" s="1">
         <v>3</v>
@@ -3753,10 +3984,13 @@
       <c r="M80" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N80">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="15.75" customHeight="1">
       <c r="A81" s="2">
-        <v>45068.816516203704</v>
+        <v>44703.816516203704</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>65</v>
@@ -3785,10 +4019,13 @@
       <c r="M81" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N81">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15.75" customHeight="1">
       <c r="A82" s="2">
-        <v>45068.817766203705</v>
+        <v>44703.817766203705</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>65</v>
@@ -3817,10 +4054,13 @@
       <c r="M82" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N82">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="15.75" customHeight="1">
       <c r="A83" s="2">
-        <v>45068.81826388889</v>
+        <v>44703.81826388889</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>55</v>
@@ -3849,13 +4089,16 @@
       <c r="M83" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N83">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="15.75" customHeight="1">
       <c r="A84" s="2">
-        <v>45068.818726851852</v>
+        <v>44703.818726851852</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C84" s="1">
         <v>2</v>
@@ -3881,13 +4124,16 @@
       <c r="M84" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N84">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="15.75" customHeight="1">
       <c r="A85" s="2">
-        <v>45068.819398148145</v>
+        <v>44703.819398148145</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C85" s="1">
         <v>1</v>
@@ -3913,10 +4159,13 @@
       <c r="M85" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N85">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15.75" customHeight="1">
       <c r="A86" s="2">
-        <v>45068.822905092595</v>
+        <v>44703.822905092595</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>55</v>
@@ -3945,13 +4194,16 @@
       <c r="M86" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N86">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="15.75" customHeight="1">
       <c r="A87" s="2">
-        <v>45068.823321759257</v>
+        <v>44703.823321759257</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C87" s="1">
         <v>3</v>
@@ -3963,7 +4215,7 @@
         <v>54</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H87" s="1">
         <v>1</v>
@@ -3980,13 +4232,16 @@
       <c r="M87" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N87">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="15.75" customHeight="1">
       <c r="A88" s="2">
-        <v>45068.831030092595</v>
+        <v>44703.831030092595</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C88" s="1">
         <v>1</v>
@@ -4012,13 +4267,16 @@
       <c r="M88" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N88">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="15.75" customHeight="1">
       <c r="A89" s="2">
-        <v>45068.831516203703</v>
+        <v>44703.831516203703</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C89" s="1">
         <v>2</v>
@@ -4044,10 +4302,13 @@
       <c r="M89" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N89">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="15.75" customHeight="1">
       <c r="A90" s="2">
-        <v>45068.832106481481</v>
+        <v>44703.832106481481</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>73</v>
@@ -4062,7 +4323,7 @@
         <v>54</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G90" s="1" t="s">
         <v>90</v>
@@ -4079,10 +4340,13 @@
       <c r="M90" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N90">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="15.75" customHeight="1">
       <c r="A91" s="2">
-        <v>45068.838437500002</v>
+        <v>44703.838437500002</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>73</v>
@@ -4097,7 +4361,7 @@
         <v>54</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>90</v>
@@ -4114,10 +4378,13 @@
       <c r="M91" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N91">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="15.75" customHeight="1">
       <c r="A92" s="2">
-        <v>45068.839062500003</v>
+        <v>44703.839062500003</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>73</v>
@@ -4132,7 +4399,7 @@
         <v>28</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G92" s="1" t="s">
         <v>77</v>
@@ -4149,13 +4416,16 @@
       <c r="M92" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N92">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="15.75" customHeight="1">
       <c r="A93" s="2">
-        <v>45068.839594907404</v>
+        <v>44703.839594907404</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C93" s="1">
         <v>1</v>
@@ -4167,7 +4437,7 @@
         <v>54</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>29</v>
@@ -4184,10 +4454,13 @@
       <c r="M93" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N93">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="15.75" customHeight="1">
       <c r="A94" s="2">
-        <v>45068.840011574073</v>
+        <v>44703.840011574073</v>
       </c>
       <c r="B94" s="1">
         <v>50</v>
@@ -4216,10 +4489,13 @@
       <c r="M94" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N94">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="15.75" customHeight="1">
       <c r="A95" s="2">
-        <v>45068.840370370373</v>
+        <v>44703.840370370373</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>97</v>
@@ -4234,7 +4510,7 @@
         <v>54</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H95" s="1">
         <v>0</v>
@@ -4248,10 +4524,13 @@
       <c r="M95" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N95">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="15.75" customHeight="1">
       <c r="A96" s="2">
-        <v>45068.840937499997</v>
+        <v>44703.840937499997</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>97</v>
@@ -4266,7 +4545,7 @@
         <v>54</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>90</v>
@@ -4286,13 +4565,16 @@
       <c r="M96" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N96">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="15.75" customHeight="1">
       <c r="A97" s="2">
-        <v>45068.841331018521</v>
+        <v>44703.841331018521</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C97" s="1">
         <v>2</v>
@@ -4313,21 +4595,24 @@
         <v>33</v>
       </c>
       <c r="K97" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="L97" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N97">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A98" s="2">
+        <v>44703.851064814815</v>
+      </c>
+      <c r="B98" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="L97" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M97" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A98" s="2">
-        <v>45068.851064814815</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="C98" s="1">
         <v>1</v>
@@ -4353,13 +4638,16 @@
       <c r="M98" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N98">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="15.75" customHeight="1">
       <c r="A99" s="2">
-        <v>45068.8516087963</v>
+        <v>44703.8516087963</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C99" s="1">
         <v>2</v>
@@ -4371,7 +4659,7 @@
         <v>54</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H99" s="1">
         <v>13</v>
@@ -4385,10 +4673,13 @@
       <c r="M99" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N99">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="15.75" customHeight="1">
       <c r="A100" s="2">
-        <v>45068.851956018516</v>
+        <v>44703.851956018516</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>79</v>
@@ -4417,10 +4708,13 @@
       <c r="M100" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N100">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="15.75" customHeight="1">
       <c r="A101" s="2">
-        <v>45068.852511574078</v>
+        <v>44703.852511574078</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>64</v>
@@ -4435,7 +4729,7 @@
         <v>28</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H101" s="1">
         <v>14</v>
@@ -4449,13 +4743,16 @@
       <c r="M101" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="102" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N101">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="15.75" customHeight="1">
       <c r="A102" s="2">
-        <v>45068.853067129632</v>
+        <v>44703.853067129632</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C102" s="1">
         <v>1</v>
@@ -4467,7 +4764,7 @@
         <v>54</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H102" s="1">
         <v>0</v>
@@ -4481,13 +4778,16 @@
       <c r="M102" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="103" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N102">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="15.75" customHeight="1">
       <c r="A103" s="2">
-        <v>45068.853414351855</v>
+        <v>44703.853414351855</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C103" s="1">
         <v>2</v>
@@ -4499,7 +4799,7 @@
         <v>28</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H103" s="1">
         <v>0</v>
@@ -4513,13 +4813,16 @@
       <c r="M103" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="104" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N103">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="15.75" customHeight="1">
       <c r="A104" s="2">
-        <v>45068.853877314818</v>
+        <v>44703.853877314818</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C104" s="1">
         <v>3</v>
@@ -4545,13 +4848,16 @@
       <c r="M104" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="105" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N104">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="15.75" customHeight="1">
       <c r="A105" s="2">
-        <v>45068.854305555556</v>
+        <v>44703.854305555556</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C105" s="1">
         <v>4</v>
@@ -4566,7 +4872,7 @@
         <v>71</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H105" s="1">
         <v>0</v>
@@ -4580,13 +4886,16 @@
       <c r="M105" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="106" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N105">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="15.75" customHeight="1">
       <c r="A106" s="2">
-        <v>45068.85869212963</v>
+        <v>44703.85869212963</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C106" s="1">
         <v>1</v>
@@ -4598,7 +4907,7 @@
         <v>54</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>63</v>
@@ -4615,10 +4924,13 @@
       <c r="M106" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="107" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N106">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="15.75" customHeight="1">
       <c r="A107" s="2">
-        <v>45068.859074074076</v>
+        <v>44703.859074074076</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>27</v>
@@ -4633,7 +4945,7 @@
         <v>54</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>48</v>
@@ -4650,10 +4962,13 @@
       <c r="M107" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="108" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N107">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="15.75" customHeight="1">
       <c r="A108" s="2">
-        <v>45068.860381944447</v>
+        <v>44703.860381944447</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>27</v>
@@ -4682,10 +4997,13 @@
       <c r="M108" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="109" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N108">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="15.75" customHeight="1">
       <c r="A109" s="2">
-        <v>45068.860902777778</v>
+        <v>44703.860902777778</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>27</v>
@@ -4700,7 +5018,7 @@
         <v>54</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H109" s="1">
         <v>12</v>
@@ -4714,10 +5032,13 @@
       <c r="M109" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="110" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N109">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="15.75" customHeight="1">
       <c r="A110" s="2">
-        <v>45068.861319444448</v>
+        <v>44703.861319444448</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>79</v>
@@ -4749,13 +5070,16 @@
       <c r="M110" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="111" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N110">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="15.75" customHeight="1">
       <c r="A111" s="2">
-        <v>45081.553807870368</v>
+        <v>44716.553807870368</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C111" s="1">
         <v>1</v>
@@ -4767,7 +5091,7 @@
         <v>28</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H111" s="1">
         <v>3</v>
@@ -4781,13 +5105,16 @@
       <c r="M111" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="112" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N111">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="15.75" customHeight="1">
       <c r="A112" s="2">
-        <v>45081.554189814815</v>
+        <v>44716.554189814815</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C112" s="1">
         <v>2</v>
@@ -4813,13 +5140,16 @@
       <c r="M112" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="113" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N112">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="15.75" customHeight="1">
       <c r="A113" s="2">
-        <v>45081.554583333331</v>
+        <v>44716.554583333331</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C113" s="1">
         <v>3</v>
@@ -4831,7 +5161,7 @@
         <v>56</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H113" s="1">
         <v>8</v>
@@ -4845,13 +5175,16 @@
       <c r="M113" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="114" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N113">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="15.75" customHeight="1">
       <c r="A114" s="2">
-        <v>45081.554976851854</v>
+        <v>44716.554976851854</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C114" s="1">
         <v>1</v>
@@ -4877,10 +5210,13 @@
       <c r="M114" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N114">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="15.75" customHeight="1">
       <c r="A115" s="2">
-        <v>45081.555555555555</v>
+        <v>44716.555555555555</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>30</v>
@@ -4912,10 +5248,13 @@
       <c r="M115" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="116" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N115">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="15.75" customHeight="1">
       <c r="A116" s="2">
-        <v>45081.555960648147</v>
+        <v>44716.555960648147</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>30</v>
@@ -4947,10 +5286,13 @@
       <c r="M116" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="117" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N116">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="15.75" customHeight="1">
       <c r="A117" s="2">
-        <v>45081.567048611112</v>
+        <v>44716.567048611112</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>93</v>
@@ -4979,10 +5321,13 @@
       <c r="M117" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="118" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N117">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="15.75" customHeight="1">
       <c r="A118" s="2">
-        <v>45081.567546296297</v>
+        <v>44716.567546296297</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>93</v>
@@ -5011,10 +5356,13 @@
       <c r="M118" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="119" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N118">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="15.75" customHeight="1">
       <c r="A119" s="2">
-        <v>45081.568368055552</v>
+        <v>44716.568368055552</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>93</v>
@@ -5029,7 +5377,7 @@
         <v>54</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H119" s="1">
         <v>14</v>
@@ -5043,13 +5391,16 @@
       <c r="M119" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="120" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N119">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="15.75" customHeight="1">
       <c r="A120" s="2">
-        <v>45081.56890046296</v>
+        <v>44716.56890046296</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C120" s="1">
         <v>1</v>
@@ -5061,7 +5412,7 @@
         <v>56</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H120" s="1">
         <v>0</v>
@@ -5078,13 +5429,16 @@
       <c r="M120" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="121" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N120">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="15.75" customHeight="1">
       <c r="A121" s="2">
-        <v>45081.569305555553</v>
+        <v>44716.569305555553</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C121" s="1">
         <v>1</v>
@@ -5110,13 +5464,16 @@
       <c r="M121" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="122" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N121">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="15.75" customHeight="1">
       <c r="A122" s="2">
-        <v>45081.570023148146</v>
+        <v>44716.570023148146</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C122" s="1">
         <v>2</v>
@@ -5142,10 +5499,13 @@
       <c r="M122" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N122">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="15.75" customHeight="1">
       <c r="A123" s="2">
-        <v>45081.5705787037</v>
+        <v>44716.5705787037</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>67</v>
@@ -5174,13 +5534,16 @@
       <c r="M123" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="124" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N123">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="15.75" customHeight="1">
       <c r="A124" s="2">
-        <v>45081.571539351855</v>
+        <v>44716.571539351855</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C124" s="1">
         <v>2</v>
@@ -5192,7 +5555,7 @@
         <v>56</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H124" s="1">
         <v>3</v>
@@ -5206,13 +5569,16 @@
       <c r="M124" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="125" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N124">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="15.75" customHeight="1">
       <c r="A125" s="2">
-        <v>45081.572071759256</v>
+        <v>44716.572071759256</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C125" s="1">
         <v>3</v>
@@ -5224,7 +5590,7 @@
         <v>56</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H125" s="1">
         <v>5</v>
@@ -5238,13 +5604,16 @@
       <c r="M125" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="126" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N125">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="15.75" customHeight="1">
       <c r="A126" s="2">
-        <v>45081.572546296295</v>
+        <v>44716.572546296295</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C126" s="1">
         <v>1</v>
@@ -5270,13 +5639,16 @@
       <c r="M126" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="127" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N126">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="15.75" customHeight="1">
       <c r="A127" s="2">
-        <v>45081.572951388887</v>
+        <v>44716.572951388887</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C127" s="1">
         <v>2</v>
@@ -5302,10 +5674,13 @@
       <c r="M127" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="128" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N127">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="15.75" customHeight="1">
       <c r="A128" s="2">
-        <v>45081.573310185187</v>
+        <v>44716.573310185187</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>79</v>
@@ -5334,10 +5709,13 @@
       <c r="M128" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="129" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N128">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="15.75" customHeight="1">
       <c r="A129" s="2">
-        <v>45081.573831018519</v>
+        <v>44716.573831018519</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>65</v>
@@ -5352,7 +5730,7 @@
         <v>54</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H129" s="1">
         <v>41</v>
@@ -5369,10 +5747,13 @@
       <c r="M129" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="130" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N129">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="15.75" customHeight="1">
       <c r="A130" s="2">
-        <v>45081.575069444443</v>
+        <v>44716.575069444443</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>83</v>
@@ -5401,10 +5782,13 @@
       <c r="M130" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="131" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N130">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="15.75" customHeight="1">
       <c r="A131" s="2">
-        <v>45081.575752314813</v>
+        <v>44716.575752314813</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>49</v>
@@ -5433,13 +5817,16 @@
       <c r="M131" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="132" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N131">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="15.75" customHeight="1">
       <c r="A132" s="2">
-        <v>45081.576192129629</v>
+        <v>44716.576192129629</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C132" s="1">
         <v>3</v>
@@ -5451,7 +5838,7 @@
         <v>56</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H132" s="1">
         <v>2</v>
@@ -5465,13 +5852,16 @@
       <c r="M132" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="133" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N132">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="15.75" customHeight="1">
       <c r="A133" s="2">
-        <v>45081.588877314818</v>
+        <v>44716.588877314818</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C133" s="1">
         <v>1</v>
@@ -5497,13 +5887,16 @@
       <c r="M133" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="134" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N133">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="15.75" customHeight="1">
       <c r="A134" s="2">
-        <v>45081.589467592596</v>
+        <v>44716.589467592596</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C134" s="1">
         <v>2</v>
@@ -5515,7 +5908,7 @@
         <v>54</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H134" s="1">
         <v>0</v>
@@ -5529,13 +5922,16 @@
       <c r="M134" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="135" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N134">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="15.75" customHeight="1">
       <c r="A135" s="2">
-        <v>45081.589872685188</v>
+        <v>44716.589872685188</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C135" s="1">
         <v>3</v>
@@ -5547,7 +5943,7 @@
         <v>28</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>94</v>
@@ -5564,13 +5960,16 @@
       <c r="M135" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="136" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N135">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="15.75" customHeight="1">
       <c r="A136" s="2">
-        <v>45081.610983796294</v>
+        <v>44716.610983796294</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C136" s="1">
         <v>1</v>
@@ -5596,10 +5995,13 @@
       <c r="M136" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N136">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="15.75" customHeight="1">
       <c r="A137" s="2">
-        <v>45081.61146990741</v>
+        <v>44716.61146990741</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>83</v>
@@ -5628,10 +6030,13 @@
       <c r="M137" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="138" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N137">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="15.75" customHeight="1">
       <c r="A138" s="2">
-        <v>45081.612071759257</v>
+        <v>44716.612071759257</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>70</v>
@@ -5663,13 +6068,16 @@
       <c r="M138" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="139" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N138">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="15.75" customHeight="1">
       <c r="A139" s="2">
-        <v>45081.613067129627</v>
+        <v>44716.613067129627</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C139" s="1">
         <v>3</v>
@@ -5695,13 +6103,16 @@
       <c r="M139" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="140" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N139">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="15.75" customHeight="1">
       <c r="A140" s="2">
-        <v>45081.62296296296</v>
+        <v>44716.62296296296</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C140" s="1">
         <v>1</v>
@@ -5727,13 +6138,16 @@
       <c r="M140" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="141" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N140">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="15.75" customHeight="1">
       <c r="A141" s="2">
-        <v>45081.623842592591</v>
+        <v>44716.623842592591</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C141" s="1">
         <v>2</v>
@@ -5759,13 +6173,16 @@
       <c r="M141" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="142" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N141">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="15.75" customHeight="1">
       <c r="A142" s="2">
-        <v>45081.625138888892</v>
+        <v>44716.625138888892</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C142" s="1">
         <v>3</v>
@@ -5780,7 +6197,7 @@
         <v>71</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H142" s="1">
         <v>12</v>
@@ -5794,13 +6211,16 @@
       <c r="M142" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="143" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N142">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="15.75" customHeight="1">
       <c r="A143" s="2">
-        <v>45081.625509259262</v>
+        <v>44716.625509259262</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C143" s="1">
         <v>1</v>
@@ -5826,13 +6246,16 @@
       <c r="M143" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="144" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N143">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="15.75" customHeight="1">
       <c r="A144" s="2">
-        <v>45081.625914351855</v>
+        <v>44716.625914351855</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C144" s="1">
         <v>2</v>
@@ -5858,13 +6281,16 @@
       <c r="M144" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="145" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N144">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="15.75" customHeight="1">
       <c r="A145" s="2">
-        <v>45081.626400462963</v>
+        <v>44716.626400462963</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C145" s="1">
         <v>1</v>
@@ -5876,7 +6302,7 @@
         <v>28</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H145" s="1">
         <v>1</v>
@@ -5890,13 +6316,16 @@
       <c r="M145" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="146" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N145">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="15.75" customHeight="1">
       <c r="A146" s="2">
-        <v>45081.626967592594</v>
+        <v>44716.626967592594</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C146" s="1">
         <v>2</v>
@@ -5922,13 +6351,16 @@
       <c r="M146" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="147" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N146">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="15.75" customHeight="1">
       <c r="A147" s="2">
-        <v>45081.627534722225</v>
+        <v>44716.627534722225</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C147" s="1">
         <v>3</v>
@@ -5954,13 +6386,16 @@
       <c r="M147" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="148" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N147">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="15.75" customHeight="1">
       <c r="A148" s="2">
-        <v>45081.627962962964</v>
+        <v>44716.627962962964</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C148" s="1">
         <v>1</v>
@@ -5972,7 +6407,7 @@
         <v>31</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H148" s="1">
         <v>11</v>
@@ -5986,10 +6421,13 @@
       <c r="M148" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="149" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N148">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="15.75" customHeight="1">
       <c r="A149" s="2">
-        <v>45081.62840277778</v>
+        <v>44716.62840277778</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>70</v>
@@ -6004,7 +6442,7 @@
         <v>31</v>
       </c>
       <c r="G149" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H149" s="1">
         <v>11</v>
@@ -6018,13 +6456,16 @@
       <c r="M149" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="150" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N149">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="15.75" customHeight="1">
       <c r="A150" s="2">
-        <v>45081.628888888888</v>
+        <v>44716.628888888888</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C150" s="1">
         <v>1</v>
@@ -6050,10 +6491,13 @@
       <c r="M150" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="151" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N150">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="15.75" customHeight="1">
       <c r="A151" s="2">
-        <v>45081.629803240743</v>
+        <v>44716.629803240743</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>30</v>
@@ -6068,7 +6512,7 @@
         <v>43</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H151" s="1">
         <v>7</v>
@@ -6082,13 +6526,16 @@
       <c r="M151" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="152" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N151">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="15.75" customHeight="1">
       <c r="A152" s="2">
-        <v>45081.630196759259</v>
+        <v>44716.630196759259</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C152" s="1">
         <v>1</v>
@@ -6100,7 +6547,7 @@
         <v>54</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H152" s="1">
         <v>0</v>
@@ -6114,13 +6561,16 @@
       <c r="M152" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="153" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N152">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="15.75" customHeight="1">
       <c r="A153" s="2">
-        <v>45081.630659722221</v>
+        <v>44716.630659722221</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C153" s="1">
         <v>1</v>
@@ -6146,10 +6596,13 @@
       <c r="M153" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="154" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N153">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="15.75" customHeight="1">
       <c r="A154" s="2">
-        <v>45081.631099537037</v>
+        <v>44716.631099537037</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>70</v>
@@ -6164,7 +6617,7 @@
         <v>28</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H154" s="1">
         <v>0</v>
@@ -6178,10 +6631,13 @@
       <c r="M154" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="155" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N154">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="15.75" customHeight="1">
       <c r="A155" s="2">
-        <v>45081.631481481483</v>
+        <v>44716.631481481483</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>70</v>
@@ -6196,7 +6652,7 @@
         <v>54</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H155" s="1">
         <v>0</v>
@@ -6210,13 +6666,16 @@
       <c r="M155" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="156" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N155">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="15.75" customHeight="1">
       <c r="A156" s="2">
-        <v>45081.639097222222</v>
+        <v>44716.639097222222</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C156" s="1">
         <v>1</v>
@@ -6242,10 +6701,13 @@
       <c r="M156" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="157" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N156">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="15.75" customHeight="1">
       <c r="A157" s="2">
-        <v>45081.639641203707</v>
+        <v>44716.639641203707</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>27</v>
@@ -6274,13 +6736,16 @@
       <c r="M157" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="158" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N157">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="15.75" customHeight="1">
       <c r="A158" s="2">
-        <v>45081.640324074076</v>
+        <v>44716.640324074076</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C158" s="1">
         <v>3</v>
@@ -6309,10 +6774,13 @@
       <c r="M158" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="159" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N158">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="15.75" customHeight="1">
       <c r="A159" s="2">
-        <v>45081.640798611108</v>
+        <v>44716.640798611108</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>35</v>
@@ -6341,10 +6809,13 @@
       <c r="M159" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="160" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N159">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="15.75" customHeight="1">
       <c r="A160" s="2">
-        <v>45081.641446759262</v>
+        <v>44716.641446759262</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>97</v>
@@ -6373,10 +6844,13 @@
       <c r="M160" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="161" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N160">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="15.75" customHeight="1">
       <c r="A161" s="2">
-        <v>45081.641886574071</v>
+        <v>44716.641886574071</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>91</v>
@@ -6391,7 +6865,7 @@
         <v>56</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H161" s="1">
         <v>0</v>
@@ -6405,10 +6879,13 @@
       <c r="M161" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="162" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N161">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="15.75" customHeight="1">
       <c r="A162" s="2">
-        <v>45081.64234953704</v>
+        <v>44716.64234953704</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>91</v>
@@ -6423,7 +6900,7 @@
         <v>54</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H162" s="1">
         <v>8</v>
@@ -6437,13 +6914,16 @@
       <c r="M162" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="163" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N162">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="15.75" customHeight="1">
       <c r="A163" s="2">
-        <v>45081.642766203702</v>
+        <v>44716.642766203702</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C163" s="1">
         <v>3</v>
@@ -6455,7 +6935,7 @@
         <v>56</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H163" s="1">
         <v>6</v>
@@ -6472,10 +6952,13 @@
       <c r="M163" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="164" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N163">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="15.75" customHeight="1">
       <c r="A164" s="2">
-        <v>45088.609652777777</v>
+        <v>44723.609652777777</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>49</v>
@@ -6490,7 +6973,7 @@
         <v>54</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H164" s="1">
         <v>-2</v>
@@ -6504,13 +6987,16 @@
       <c r="M164" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="165" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N164">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="15.75" customHeight="1">
       <c r="A165" s="2">
-        <v>45088.610868055555</v>
+        <v>44723.610868055555</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C165" s="1">
         <v>2</v>
@@ -6522,7 +7008,7 @@
         <v>31</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H165" s="1">
         <v>6</v>
@@ -6536,10 +7022,13 @@
       <c r="M165" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="166" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N165">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="15.75" customHeight="1">
       <c r="A166" s="2">
-        <v>45088.611956018518</v>
+        <v>44723.611956018518</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>22</v>
@@ -6571,13 +7060,16 @@
       <c r="M166" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="167" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N166">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="15.75" customHeight="1">
       <c r="A167" s="2">
-        <v>45088.615335648145</v>
+        <v>44723.615335648145</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C167" s="1">
         <v>3</v>
@@ -6589,7 +7081,7 @@
         <v>43</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H167" s="1">
         <v>11</v>
@@ -6603,10 +7095,13 @@
       <c r="M167" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="168" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N167">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="15.75" customHeight="1">
       <c r="A168" s="2">
-        <v>45088.617337962962</v>
+        <v>44723.617337962962</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>35</v>
@@ -6635,10 +7130,13 @@
       <c r="M168" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="169" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N168">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="15.75" customHeight="1">
       <c r="A169" s="2">
-        <v>45088.618506944447</v>
+        <v>44723.618506944447</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>35</v>
@@ -6653,7 +7151,7 @@
         <v>43</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H169" s="1">
         <v>8</v>
@@ -6667,10 +7165,13 @@
       <c r="M169" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="170" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N169">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="15.75" customHeight="1">
       <c r="A170" s="2">
-        <v>45088.620370370372</v>
+        <v>44723.620370370372</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>64</v>
@@ -6685,7 +7186,7 @@
         <v>31</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H170" s="1">
         <v>17</v>
@@ -6699,13 +7200,16 @@
       <c r="M170" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="171" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N170">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="15.75" customHeight="1">
       <c r="A171" s="2">
-        <v>45088.621724537035</v>
+        <v>44723.621724537035</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C171" s="1">
         <v>1</v>
@@ -6734,13 +7238,16 @@
       <c r="M171" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="172" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N171">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="15.75" customHeight="1">
       <c r="A172" s="2">
-        <v>45088.622812499998</v>
+        <v>44723.622812499998</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C172" s="1">
         <v>1</v>
@@ -6752,10 +7259,10 @@
         <v>28</v>
       </c>
       <c r="F172" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H172" s="1">
         <v>0</v>
@@ -6769,13 +7276,16 @@
       <c r="M172" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N172">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="15.75" customHeight="1">
       <c r="A173" s="2">
-        <v>45088.623368055552</v>
+        <v>44723.623368055552</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C173" s="1">
         <v>2</v>
@@ -6801,10 +7311,13 @@
       <c r="M173" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="174" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N173">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="15.75" customHeight="1">
       <c r="A174" s="2">
-        <v>45088.623923611114</v>
+        <v>44723.623923611114</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>39</v>
@@ -6833,13 +7346,16 @@
       <c r="M174" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="175" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N174">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="15.75" customHeight="1">
       <c r="A175" s="2">
-        <v>45088.627581018518</v>
+        <v>44723.627581018518</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C175" s="1">
         <v>1</v>
@@ -6865,13 +7381,16 @@
       <c r="M175" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="176" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N175">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="15.75" customHeight="1">
       <c r="A176" s="2">
-        <v>45088.62940972222</v>
+        <v>44723.62940972222</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C176" s="1">
         <v>1</v>
@@ -6897,10 +7416,13 @@
       <c r="M176" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="177" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N176">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="15.75" customHeight="1">
       <c r="A177" s="2">
-        <v>45088.630613425928</v>
+        <v>44723.630613425928</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>65</v>
@@ -6929,10 +7451,13 @@
       <c r="M177" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="178" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N177">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="15.75" customHeight="1">
       <c r="A178" s="2">
-        <v>45088.631481481483</v>
+        <v>44723.631481481483</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>65</v>
@@ -6964,10 +7489,13 @@
       <c r="M178" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="179" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N178">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="15.75" customHeight="1">
       <c r="A179" s="2">
-        <v>45088.632997685185</v>
+        <v>44723.632997685185</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>49</v>
@@ -6996,10 +7524,13 @@
       <c r="M179" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="180" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N179">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="15.75" customHeight="1">
       <c r="A180" s="2">
-        <v>45088.635381944441</v>
+        <v>44723.635381944441</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>49</v>
@@ -7028,10 +7559,13 @@
       <c r="M180" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N180">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="15.75" customHeight="1">
       <c r="A181" s="2">
-        <v>45088.636064814818</v>
+        <v>44723.636064814818</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>22</v>
@@ -7046,7 +7580,7 @@
         <v>31</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H181" s="1">
         <v>0</v>
@@ -7060,13 +7594,16 @@
       <c r="M181" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="182" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N181">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="15.75" customHeight="1">
       <c r="A182" s="2">
-        <v>45088.63925925926</v>
+        <v>44723.63925925926</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C182" s="1">
         <v>1</v>
@@ -7092,10 +7629,13 @@
       <c r="M182" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="183" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N182">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="15.75" customHeight="1">
       <c r="A183" s="2">
-        <v>45088.639710648145</v>
+        <v>44723.639710648145</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>73</v>
@@ -7124,10 +7664,13 @@
       <c r="M183" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="184" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N183">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="15.75" customHeight="1">
       <c r="A184" s="2">
-        <v>45088.640960648147</v>
+        <v>44723.640960648147</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>47</v>
@@ -7151,7 +7694,7 @@
         <v>25</v>
       </c>
       <c r="K184" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L184" s="1" t="s">
         <v>26</v>
@@ -7159,13 +7702,16 @@
       <c r="M184" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="185" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N184">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="15.75" customHeight="1">
       <c r="A185" s="2">
-        <v>45088.643553240741</v>
+        <v>44723.643553240741</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C185" s="1">
         <v>1</v>
@@ -7177,7 +7723,7 @@
         <v>54</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H185" s="1">
         <v>0</v>
@@ -7191,13 +7737,16 @@
       <c r="M185" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="186" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N185">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="15.75" customHeight="1">
       <c r="A186" s="2">
-        <v>45088.644965277781</v>
+        <v>44723.644965277781</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C186" s="1">
         <v>2</v>
@@ -7223,13 +7772,16 @@
       <c r="M186" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="187" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N186">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="15.75" customHeight="1">
       <c r="A187" s="2">
-        <v>45088.645868055559</v>
+        <v>44723.645868055559</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C187" s="1">
         <v>3</v>
@@ -7241,7 +7793,7 @@
         <v>54</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H187" s="1">
         <v>0</v>
@@ -7258,13 +7810,16 @@
       <c r="M187" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="188" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N187">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="15.75" customHeight="1">
       <c r="A188" s="2">
-        <v>45088.648032407407</v>
+        <v>44723.648032407407</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C188" s="1">
         <v>3</v>
@@ -7279,7 +7834,7 @@
         <v>71</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H188" s="1">
         <v>8</v>
@@ -7293,13 +7848,16 @@
       <c r="M188" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="189" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N188">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="15.75" customHeight="1">
       <c r="A189" s="2">
-        <v>45088.64984953704</v>
+        <v>44723.64984953704</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C189" s="1">
         <v>1</v>
@@ -7311,7 +7869,7 @@
         <v>54</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H189" s="1">
         <v>7</v>
@@ -7325,13 +7883,16 @@
       <c r="M189" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="190" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N189">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="15.75" customHeight="1">
       <c r="A190" s="2">
-        <v>45088.650543981479</v>
+        <v>44723.650543981479</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C190" s="1">
         <v>2</v>
@@ -7357,10 +7918,13 @@
       <c r="M190" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="191" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N190">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="15.75" customHeight="1">
       <c r="A191" s="2">
-        <v>45088.654143518521</v>
+        <v>44723.654143518521</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>81</v>
@@ -7389,13 +7953,16 @@
       <c r="M191" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="192" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N191">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="15.75" customHeight="1">
       <c r="A192" s="2">
-        <v>45088.654629629629</v>
+        <v>44723.654629629629</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C192" s="1">
         <v>2</v>
@@ -7421,13 +7988,16 @@
       <c r="M192" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="193" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N192">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="15.75" customHeight="1">
       <c r="A193" s="2">
-        <v>45088.655972222223</v>
+        <v>44723.655972222223</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C193" s="1">
         <v>3</v>
@@ -7456,13 +8026,16 @@
       <c r="M193" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="194" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N193">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="15.75" customHeight="1">
       <c r="A194" s="2">
-        <v>45088.665625000001</v>
+        <v>44723.665625000001</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C194" s="1">
         <v>1</v>
@@ -7474,7 +8047,7 @@
         <v>31</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H194" s="1">
         <v>7</v>
@@ -7488,13 +8061,16 @@
       <c r="M194" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="195" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N194">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="15.75" customHeight="1">
       <c r="A195" s="2">
-        <v>45088.666192129633</v>
+        <v>44723.666192129633</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C195" s="1">
         <v>2</v>
@@ -7506,7 +8082,7 @@
         <v>31</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H195" s="1">
         <v>15</v>
@@ -7520,13 +8096,16 @@
       <c r="M195" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="196" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N195">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="15.75" customHeight="1">
       <c r="A196" s="2">
-        <v>45088.667731481481</v>
+        <v>44723.667731481481</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C196" s="1">
         <v>1</v>
@@ -7538,7 +8117,7 @@
         <v>28</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H196" s="1">
         <v>7</v>
@@ -7552,10 +8131,13 @@
       <c r="M196" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="197" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N196">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="15.75" customHeight="1">
       <c r="A197" s="2">
-        <v>45088.671377314815</v>
+        <v>44723.671377314815</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>85</v>
@@ -7570,7 +8152,7 @@
         <v>54</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H197" s="1">
         <v>0</v>
@@ -7584,10 +8166,13 @@
       <c r="M197" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="198" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N197">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="15.75" customHeight="1">
       <c r="A198" s="2">
-        <v>45088.672523148147</v>
+        <v>44723.672523148147</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>85</v>
@@ -7616,13 +8201,16 @@
       <c r="M198" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="199" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N198">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="15.75" customHeight="1">
       <c r="A199" s="2">
-        <v>45088.673159722224</v>
+        <v>44723.673159722224</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C199" s="1">
         <v>1</v>
@@ -7648,10 +8236,13 @@
       <c r="M199" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="200" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N199">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="15.75" customHeight="1">
       <c r="A200" s="2">
-        <v>45088.673576388886</v>
+        <v>44723.673576388886</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>89</v>
@@ -7683,10 +8274,13 @@
       <c r="M200" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="201" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N200">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="15.75" customHeight="1">
       <c r="A201" s="2">
-        <v>45088.67454861111</v>
+        <v>44723.67454861111</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>87</v>
@@ -7715,10 +8309,13 @@
       <c r="M201" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="202" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N201">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="15.75" customHeight="1">
       <c r="A202" s="2">
-        <v>45088.675219907411</v>
+        <v>44723.675219907411</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>88</v>
@@ -7733,7 +8330,7 @@
         <v>31</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H202" s="1">
         <v>7</v>
@@ -7747,10 +8344,13 @@
       <c r="M202" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="203" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N202">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="15.75" customHeight="1">
       <c r="A203" s="2">
-        <v>45088.677175925928</v>
+        <v>44723.677175925928</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>89</v>
@@ -7765,7 +8365,7 @@
         <v>31</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H203" s="1">
         <v>15</v>
@@ -7782,10 +8382,13 @@
       <c r="M203" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="204" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N203">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="15.75" customHeight="1">
       <c r="A204" s="2">
-        <v>45088.682222222225</v>
+        <v>44723.682222222225</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>83</v>
@@ -7800,7 +8403,7 @@
         <v>28</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H204" s="1">
         <v>3</v>
@@ -7814,13 +8417,16 @@
       <c r="M204" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="205" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N204">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="15.75" customHeight="1">
       <c r="A205" s="2">
-        <v>45088.682546296295</v>
+        <v>44723.682546296295</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C205" s="1">
         <v>2</v>
@@ -7846,13 +8452,16 @@
       <c r="M205" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="206" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N205">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="15.75" customHeight="1">
       <c r="A206" s="2">
-        <v>45088.683749999997</v>
+        <v>44723.683749999997</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C206" s="1">
         <v>3</v>
@@ -7881,13 +8490,16 @@
       <c r="M206" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N206">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="15.75" customHeight="1">
       <c r="A207" s="2">
-        <v>45088.686562499999</v>
+        <v>44723.686562499999</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C207" s="1">
         <v>1</v>
@@ -7913,10 +8525,13 @@
       <c r="M207" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N207">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="15.75" customHeight="1">
       <c r="A208" s="2">
-        <v>45088.691157407404</v>
+        <v>44723.691157407404</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>64</v>
@@ -7945,10 +8560,13 @@
       <c r="M208" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="209" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N208">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="15.75" customHeight="1">
       <c r="A209" s="2">
-        <v>45088.691770833335</v>
+        <v>44723.691770833335</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>85</v>
@@ -7977,10 +8595,13 @@
       <c r="M209" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="210" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N209">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="15.75" customHeight="1">
       <c r="A210" s="2">
-        <v>45088.692604166667</v>
+        <v>44723.692604166667</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>85</v>
@@ -7995,7 +8616,7 @@
         <v>28</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H210" s="1">
         <v>0</v>
@@ -8009,13 +8630,16 @@
       <c r="M210" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="211" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N210">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="15.75" customHeight="1">
       <c r="A211" s="2">
-        <v>45088.710300925923</v>
+        <v>44723.710300925923</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C211" s="1">
         <v>1</v>
@@ -8041,10 +8665,13 @@
       <c r="M211" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="212" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N211">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="15.75" customHeight="1">
       <c r="A212" s="2">
-        <v>45088.713229166664</v>
+        <v>44723.713229166664</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>53</v>
@@ -8073,10 +8700,13 @@
       <c r="M212" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="213" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N212">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14" ht="15.75" customHeight="1">
       <c r="A213" s="2">
-        <v>45088.713784722226</v>
+        <v>44723.713784722226</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>53</v>
@@ -8105,13 +8735,16 @@
       <c r="M213" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="214" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N213">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="15.75" customHeight="1">
       <c r="A214" s="2">
-        <v>45088.714537037034</v>
+        <v>44723.714537037034</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C214" s="1">
         <v>3</v>
@@ -8137,10 +8770,13 @@
       <c r="M214" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="215" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N214">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="15.75" customHeight="1">
       <c r="A215" s="2">
-        <v>45088.715196759258</v>
+        <v>44723.715196759258</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>60</v>
@@ -8169,13 +8805,16 @@
       <c r="M215" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="216" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N215">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="15.75" customHeight="1">
       <c r="A216" s="2">
-        <v>45088.715740740743</v>
+        <v>44723.715740740743</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C216" s="1">
         <v>2</v>
@@ -8187,7 +8826,7 @@
         <v>54</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H216" s="1">
         <v>0</v>
@@ -8204,13 +8843,16 @@
       <c r="M216" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="217" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N216">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" ht="15.75" customHeight="1">
       <c r="A217" s="2">
-        <v>45088.716481481482</v>
+        <v>44723.716481481482</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C217" s="1">
         <v>2</v>
@@ -8236,13 +8878,16 @@
       <c r="M217" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="218" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N217">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" ht="15.75" customHeight="1">
       <c r="A218" s="2">
-        <v>45088.716990740744</v>
+        <v>44723.716990740744</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C218" s="1">
         <v>3</v>
@@ -8268,13 +8913,16 @@
       <c r="M218" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N218">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="15.75" customHeight="1">
       <c r="A219" s="2">
-        <v>45088.718530092592</v>
+        <v>44723.718530092592</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C219" s="1">
         <v>1</v>
@@ -8303,10 +8951,13 @@
       <c r="M219" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="220" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N219">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="15.75" customHeight="1">
       <c r="A220" s="2">
-        <v>45110.754525462966</v>
+        <v>44745.754525462966</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>70</v>
@@ -8321,7 +8972,7 @@
         <v>54</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H220" s="1">
         <v>0</v>
@@ -8335,10 +8986,13 @@
       <c r="M220" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="221" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N220">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="15.75" customHeight="1">
       <c r="A221" s="2">
-        <v>45110.76048611111</v>
+        <v>44745.76048611111</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>70</v>
@@ -8367,13 +9021,16 @@
       <c r="M221" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="222" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N221">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="15.75" customHeight="1">
       <c r="A222" s="2">
-        <v>45110.761180555557</v>
+        <v>44745.761180555557</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C222" s="1">
         <v>3</v>
@@ -8399,13 +9056,16 @@
       <c r="M222" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="223" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N222">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="15.75" customHeight="1">
       <c r="A223" s="2">
-        <v>45110.761990740742</v>
+        <v>44745.761990740742</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C223" s="1">
         <v>1</v>
@@ -8431,10 +9091,13 @@
       <c r="M223" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="224" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N223">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" ht="15.75" customHeight="1">
       <c r="A224" s="2">
-        <v>45110.762407407405</v>
+        <v>44745.762407407405</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>78</v>
@@ -8449,7 +9112,7 @@
         <v>54</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H224" s="1">
         <v>3</v>
@@ -8463,13 +9126,16 @@
       <c r="M224" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="225" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N224">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="15.75" customHeight="1">
       <c r="A225" s="2">
-        <v>45110.762881944444</v>
+        <v>44745.762881944444</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C225" s="1">
         <v>3</v>
@@ -8495,13 +9161,16 @@
       <c r="M225" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="226" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N225">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14" ht="15.75" customHeight="1">
       <c r="A226" s="2">
-        <v>45110.763310185182</v>
+        <v>44745.763310185182</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C226" s="1">
         <v>1</v>
@@ -8513,7 +9182,7 @@
         <v>54</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="H226" s="1">
         <v>0</v>
@@ -8527,13 +9196,16 @@
       <c r="M226" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="227" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N226">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14" ht="15.75" customHeight="1">
       <c r="A227" s="2">
-        <v>45110.763715277775</v>
+        <v>44745.763715277775</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C227" s="1">
         <v>2</v>
@@ -8559,13 +9231,16 @@
       <c r="M227" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="228" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N227">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14" ht="15.75" customHeight="1">
       <c r="A228" s="2">
-        <v>45110.764236111114</v>
+        <v>44745.764236111114</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C228" s="1">
         <v>3</v>
@@ -8594,13 +9269,16 @@
       <c r="M228" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="229" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N228">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="229" spans="1:14" ht="15.75" customHeight="1">
       <c r="A229" s="2">
-        <v>45110.764664351853</v>
+        <v>44745.764664351853</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C229" s="1">
         <v>4</v>
@@ -8626,10 +9304,13 @@
       <c r="M229" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N229">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="230" spans="1:14" ht="15.75" customHeight="1">
       <c r="A230" s="2">
-        <v>45110.768009259256</v>
+        <v>44745.768009259256</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>61</v>
@@ -8658,13 +9339,16 @@
       <c r="M230" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="231" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N230">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="231" spans="1:14" ht="15.75" customHeight="1">
       <c r="A231" s="2">
-        <v>45110.768483796295</v>
+        <v>44745.768483796295</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C231" s="1">
         <v>2</v>
@@ -8690,13 +9374,16 @@
       <c r="M231" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="232" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N231">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="232" spans="1:14" ht="15.75" customHeight="1">
       <c r="A232" s="2">
-        <v>45110.768935185188</v>
+        <v>44745.768935185188</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C232" s="1">
         <v>3</v>
@@ -8722,13 +9409,16 @@
       <c r="M232" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N232">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" ht="15.75" customHeight="1">
       <c r="A233" s="2">
-        <v>45110.780173611114</v>
+        <v>44745.780173611114</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C233" s="1">
         <v>1</v>
@@ -8754,13 +9444,16 @@
       <c r="M233" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="234" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N233">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" ht="15.75" customHeight="1">
       <c r="A234" s="2">
-        <v>45110.780613425923</v>
+        <v>44745.780613425923</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C234" s="1">
         <v>2</v>
@@ -8772,7 +9465,7 @@
         <v>54</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>50</v>
@@ -8789,13 +9482,16 @@
       <c r="M234" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="235" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N234">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="235" spans="1:14" ht="15.75" customHeight="1">
       <c r="A235" s="2">
-        <v>45110.781192129631</v>
+        <v>44745.781192129631</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C235" s="1">
         <v>3</v>
@@ -8807,7 +9503,7 @@
         <v>54</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H235" s="1">
         <v>23</v>
@@ -8824,10 +9520,13 @@
       <c r="M235" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="236" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N235">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="236" spans="1:14" ht="15.75" customHeight="1">
       <c r="A236" s="2">
-        <v>45110.781793981485</v>
+        <v>44745.781793981485</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>78</v>
@@ -8856,10 +9555,13 @@
       <c r="M236" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="237" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N236">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="237" spans="1:14" ht="15.75" customHeight="1">
       <c r="A237" s="2">
-        <v>45110.783888888887</v>
+        <v>44745.783888888887</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>78</v>
@@ -8888,13 +9590,16 @@
       <c r="M237" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="238" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N237">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="238" spans="1:14" ht="15.75" customHeight="1">
       <c r="A238" s="2">
-        <v>45110.784479166665</v>
+        <v>44745.784479166665</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C238" s="1">
         <v>3</v>
@@ -8920,13 +9625,16 @@
       <c r="M238" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="239" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N238">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" ht="15.75" customHeight="1">
       <c r="A239" s="2">
-        <v>45110.785578703704</v>
+        <v>44745.785578703704</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C239" s="1">
         <v>4</v>
@@ -8938,7 +9646,7 @@
         <v>36</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H239" s="1">
         <v>0</v>
@@ -8955,13 +9663,16 @@
       <c r="M239" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="240" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N239">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="240" spans="1:14" ht="15.75" customHeight="1">
       <c r="A240" s="2">
-        <v>45110.786099537036</v>
+        <v>44745.786099537036</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C240" s="1">
         <v>4</v>
@@ -8973,7 +9684,7 @@
         <v>40</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H240" s="1">
         <v>0</v>
@@ -8987,13 +9698,16 @@
       <c r="M240" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="241" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N240">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="241" spans="1:14" ht="15.75" customHeight="1">
       <c r="A241" s="2">
-        <v>45110.786550925928</v>
+        <v>44745.786550925928</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C241" s="1">
         <v>1</v>
@@ -9019,13 +9733,16 @@
       <c r="M241" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="242" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N241">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="242" spans="1:14" ht="15.75" customHeight="1">
       <c r="A242" s="2">
-        <v>45110.787129629629</v>
+        <v>44745.787129629629</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C242" s="1">
         <v>1</v>
@@ -9037,7 +9754,7 @@
         <v>54</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H242" s="1">
         <v>7</v>
@@ -9051,10 +9768,13 @@
       <c r="M242" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="243" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N242">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="243" spans="1:14" ht="15.75" customHeight="1">
       <c r="A243" s="2">
-        <v>45110.787511574075</v>
+        <v>44745.787511574075</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>61</v>
@@ -9069,7 +9789,7 @@
         <v>31</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H243" s="1">
         <v>2</v>
@@ -9083,13 +9803,16 @@
       <c r="M243" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="244" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N243">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="244" spans="1:14" ht="15.75" customHeight="1">
       <c r="A244" s="2">
-        <v>45110.788032407407</v>
+        <v>44745.788032407407</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C244" s="1">
         <v>3</v>
@@ -9115,10 +9838,13 @@
       <c r="M244" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="245" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N244">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="245" spans="1:14" ht="15.75" customHeight="1">
       <c r="A245" s="2">
-        <v>45110.80128472222</v>
+        <v>44745.80128472222</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>70</v>
@@ -9133,7 +9859,7 @@
         <v>31</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H245" s="1">
         <v>5</v>
@@ -9147,10 +9873,13 @@
       <c r="M245" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="246" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N245">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="246" spans="1:14" ht="15.75" customHeight="1">
       <c r="A246" s="2">
-        <v>45110.801689814813</v>
+        <v>44745.801689814813</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>49</v>
@@ -9179,10 +9908,13 @@
       <c r="M246" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="247" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N246">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" ht="15.75" customHeight="1">
       <c r="A247" s="2">
-        <v>45110.802418981482</v>
+        <v>44745.802418981482</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>49</v>
@@ -9197,7 +9929,7 @@
         <v>28</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H247" s="1">
         <v>6</v>
@@ -9211,13 +9943,16 @@
       <c r="M247" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="248" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N247">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" ht="15.75" customHeight="1">
       <c r="A248" s="2">
-        <v>45110.802881944444</v>
+        <v>44745.802881944444</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C248" s="1">
         <v>1</v>
@@ -9243,13 +9978,16 @@
       <c r="M248" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N248">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="15.75" customHeight="1">
       <c r="A249" s="2">
-        <v>45110.803553240738</v>
+        <v>44745.803553240738</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C249" s="1">
         <v>2</v>
@@ -9261,7 +9999,7 @@
         <v>28</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H249" s="1">
         <v>14</v>
@@ -9275,13 +10013,16 @@
       <c r="M249" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="250" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N249">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="250" spans="1:14" ht="15.75" customHeight="1">
       <c r="A250" s="2">
-        <v>45110.803946759261</v>
+        <v>44745.803946759261</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C250" s="1">
         <v>1</v>
@@ -9293,7 +10034,7 @@
         <v>54</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H250" s="1">
         <v>14</v>
@@ -9307,13 +10048,16 @@
       <c r="M250" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="251" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N250">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="251" spans="1:14" ht="15.75" customHeight="1">
       <c r="A251" s="2">
-        <v>45110.804328703707</v>
+        <v>44745.804328703707</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C251" s="1">
         <v>1</v>
@@ -9339,10 +10083,13 @@
       <c r="M251" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="252" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N251">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="252" spans="1:14" ht="15.75" customHeight="1">
       <c r="A252" s="2">
-        <v>45110.805011574077</v>
+        <v>44745.805011574077</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>87</v>
@@ -9371,10 +10118,13 @@
       <c r="M252" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="253" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N252">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="253" spans="1:14" ht="15.75" customHeight="1">
       <c r="A253" s="2">
-        <v>45110.805428240739</v>
+        <v>44745.805428240739</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>87</v>
@@ -9389,7 +10139,7 @@
         <v>31</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H253" s="1">
         <v>24</v>
@@ -9403,13 +10153,16 @@
       <c r="M253" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="254" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N253">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" ht="15.75" customHeight="1">
       <c r="A254" s="2">
-        <v>45110.806273148148</v>
+        <v>44745.806273148148</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C254" s="1">
         <v>1</v>
@@ -9418,10 +10171,10 @@
         <v>10</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H254" s="1">
         <v>2</v>
@@ -9438,13 +10191,16 @@
       <c r="M254" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N254">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" ht="15.75" customHeight="1">
       <c r="A255" s="2">
-        <v>45110.825555555559</v>
+        <v>44745.825555555559</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C255" s="1">
         <v>1</v>
@@ -9470,13 +10226,16 @@
       <c r="M255" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="256" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N255">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="256" spans="1:14" ht="15.75" customHeight="1">
       <c r="A256" s="2">
-        <v>45110.825868055559</v>
+        <v>44745.825868055559</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C256" s="1">
         <v>2</v>
@@ -9502,13 +10261,16 @@
       <c r="M256" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="257" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N256">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="257" spans="1:14" ht="15.75" customHeight="1">
       <c r="A257" s="2">
-        <v>45110.826307870368</v>
+        <v>44745.826307870368</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C257" s="1">
         <v>3</v>
@@ -9534,13 +10296,16 @@
       <c r="M257" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="258" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N257">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="258" spans="1:14" ht="15.75" customHeight="1">
       <c r="A258" s="2">
-        <v>45110.828773148147</v>
+        <v>44745.828773148147</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C258" s="1">
         <v>1</v>
@@ -9552,7 +10317,7 @@
         <v>54</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H258" s="1">
         <v>0</v>
@@ -9566,13 +10331,16 @@
       <c r="M258" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N258">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="259" spans="1:14" ht="15.75" customHeight="1">
       <c r="A259" s="2">
-        <v>45110.829189814816</v>
+        <v>44745.829189814816</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C259" s="1">
         <v>2</v>
@@ -9598,13 +10366,16 @@
       <c r="M259" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="260" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N259">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="260" spans="1:14" ht="15.75" customHeight="1">
       <c r="A260" s="2">
-        <v>45110.829756944448</v>
+        <v>44745.829756944448</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C260" s="1">
         <v>3</v>
@@ -9633,13 +10404,16 @@
       <c r="M260" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="261" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N260">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="261" spans="1:14" ht="15.75" customHeight="1">
       <c r="A261" s="2">
-        <v>45110.830138888887</v>
+        <v>44745.830138888887</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C261" s="1">
         <v>3</v>
@@ -9665,10 +10439,13 @@
       <c r="M261" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="262" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N261">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="262" spans="1:14" ht="15.75" customHeight="1">
       <c r="A262" s="2">
-        <v>45110.838634259257</v>
+        <v>44745.838634259257</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>73</v>
@@ -9697,10 +10474,13 @@
       <c r="M262" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="263" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N262">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" ht="15.75" customHeight="1">
       <c r="A263" s="2">
-        <v>45110.839421296296</v>
+        <v>44745.839421296296</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>69</v>
@@ -9715,7 +10495,7 @@
         <v>23</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H263" s="1">
         <v>4</v>
@@ -9729,13 +10509,16 @@
       <c r="M263" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="264" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N263">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" ht="15.75" customHeight="1">
       <c r="A264" s="2">
-        <v>45110.839837962965</v>
+        <v>44745.839837962965</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C264" s="1">
         <v>2</v>
@@ -9750,7 +10533,7 @@
         <v>71</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H264" s="1">
         <v>2</v>
@@ -9764,13 +10547,16 @@
       <c r="M264" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="265" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N264">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="265" spans="1:14" ht="15.75" customHeight="1">
       <c r="A265" s="2">
-        <v>45110.840289351851</v>
+        <v>44745.840289351851</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C265" s="1">
         <v>3</v>
@@ -9796,10 +10582,13 @@
       <c r="M265" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="266" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N265">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="266" spans="1:14" ht="15.75" customHeight="1">
       <c r="A266" s="2">
-        <v>45110.840775462966</v>
+        <v>44745.840775462966</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>96</v>
@@ -9814,7 +10603,7 @@
         <v>31</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H266" s="1">
         <v>0</v>
@@ -9828,13 +10617,16 @@
       <c r="M266" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="267" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N266">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="267" spans="1:14" ht="15.75" customHeight="1">
       <c r="A267" s="2">
-        <v>45110.860023148147</v>
+        <v>44745.860023148147</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C267" s="1">
         <v>1</v>
@@ -9863,10 +10655,13 @@
       <c r="M267" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="268" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N267">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="268" spans="1:14" ht="15.75" customHeight="1">
       <c r="A268" s="2">
-        <v>45110.860891203702</v>
+        <v>44745.860891203702</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>79</v>
@@ -9881,7 +10676,7 @@
         <v>54</v>
       </c>
       <c r="G268" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H268" s="1">
         <v>4</v>
@@ -9895,13 +10690,16 @@
       <c r="M268" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="269" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N268">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="269" spans="1:14" ht="15.75" customHeight="1">
       <c r="A269" s="2">
-        <v>45110.861724537041</v>
+        <v>44745.861724537041</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C269" s="1">
         <v>2</v>
@@ -9913,7 +10711,7 @@
         <v>54</v>
       </c>
       <c r="G269" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H269" s="1">
         <v>0</v>
@@ -9927,13 +10725,16 @@
       <c r="M269" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="270" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N269">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" ht="15.75" customHeight="1">
       <c r="A270" s="2">
-        <v>45110.862175925926</v>
+        <v>44745.862175925926</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C270" s="1">
         <v>3</v>
@@ -9945,7 +10746,7 @@
         <v>54</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H270" s="1">
         <v>12</v>
@@ -9959,13 +10760,16 @@
       <c r="M270" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="271" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N270">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" ht="15.75" customHeight="1">
       <c r="A271" s="2">
-        <v>45110.862581018519</v>
+        <v>44745.862581018519</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C271" s="1">
         <v>1</v>
@@ -9991,13 +10795,16 @@
       <c r="M271" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="272" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N271">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" ht="15.75" customHeight="1">
       <c r="A272" s="2">
-        <v>45110.863518518519</v>
+        <v>44745.863518518519</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C272" s="1">
         <v>2</v>
@@ -10023,13 +10830,16 @@
       <c r="M272" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="273" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N272">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" ht="15.75" customHeight="1">
       <c r="A273" s="2">
-        <v>45110.86409722222</v>
+        <v>44745.86409722222</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C273" s="1">
         <v>3</v>
@@ -10041,7 +10851,7 @@
         <v>43</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H273" s="1">
         <v>1</v>
@@ -10055,13 +10865,16 @@
       <c r="M273" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="274" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N273">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="274" spans="1:14" ht="15.75" customHeight="1">
       <c r="A274" s="2">
-        <v>45110.987662037034</v>
+        <v>44745.987662037034</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C274" s="1">
         <v>4</v>
@@ -10070,7 +10883,7 @@
         <v>2</v>
       </c>
       <c r="E274" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>59</v>
@@ -10087,13 +10900,16 @@
       <c r="M274" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="275" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N274">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="275" spans="1:14" ht="15.75" customHeight="1">
       <c r="A275" s="2">
-        <v>45110.988055555557</v>
+        <v>44745.988055555557</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C275" s="1">
         <v>1</v>
@@ -10119,13 +10935,16 @@
       <c r="M275" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N275">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" ht="15.75" customHeight="1">
       <c r="A276" s="2">
-        <v>45110.98841435185</v>
+        <v>44745.98841435185</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C276" s="1">
         <v>2</v>
@@ -10151,13 +10970,16 @@
       <c r="M276" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="277" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N276">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="277" spans="1:14" ht="15.75" customHeight="1">
       <c r="A277" s="2">
-        <v>45110.988645833335</v>
+        <v>44745.988645833335</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C277" s="1">
         <v>1</v>
@@ -10183,13 +11005,16 @@
       <c r="M277" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="278" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N277">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" ht="15.75" customHeight="1">
       <c r="A278" s="2">
-        <v>45110.988912037035</v>
+        <v>44745.988912037035</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C278" s="1">
         <v>2</v>
@@ -10218,10 +11043,13 @@
       <c r="M278" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="279" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N278">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="279" spans="1:14" ht="15.75" customHeight="1">
       <c r="A279" s="2">
-        <v>45123.759930555556</v>
+        <v>44758.759930555556</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>84</v>
@@ -10236,7 +11064,7 @@
         <v>54</v>
       </c>
       <c r="G279" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H279" s="1">
         <v>0</v>
@@ -10245,7 +11073,7 @@
         <v>33</v>
       </c>
       <c r="K279" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L279" s="1" t="s">
         <v>34</v>
@@ -10253,13 +11081,16 @@
       <c r="M279" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="280" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N279">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="280" spans="1:14" ht="15.75" customHeight="1">
       <c r="A280" s="2">
-        <v>45123.765555555554</v>
+        <v>44758.765555555554</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C280" s="1">
         <v>1</v>
@@ -10271,7 +11102,7 @@
         <v>31</v>
       </c>
       <c r="G280" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H280" s="1">
         <v>1</v>
@@ -10285,13 +11116,16 @@
       <c r="M280" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="281" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N280">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="281" spans="1:14" ht="15.75" customHeight="1">
       <c r="A281" s="2">
-        <v>45123.76599537037</v>
+        <v>44758.76599537037</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C281" s="1">
         <v>2</v>
@@ -10317,13 +11151,16 @@
       <c r="M281" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="282" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N281">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="282" spans="1:14" ht="15.75" customHeight="1">
       <c r="A282" s="2">
-        <v>45123.766284722224</v>
+        <v>44758.766284722224</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C282" s="1">
         <v>3</v>
@@ -10349,10 +11186,13 @@
       <c r="M282" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="283" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N282">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" ht="15.75" customHeight="1">
       <c r="A283" s="2">
-        <v>45123.776423611111</v>
+        <v>44758.776423611111</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>73</v>
@@ -10381,10 +11221,13 @@
       <c r="M283" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="284" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N283">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" ht="15.75" customHeight="1">
       <c r="A284" s="2">
-        <v>45123.776724537034</v>
+        <v>44758.776724537034</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>69</v>
@@ -10413,13 +11256,16 @@
       <c r="M284" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="285" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N284">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" ht="15.75" customHeight="1">
       <c r="A285" s="2">
-        <v>45123.777395833335</v>
+        <v>44758.777395833335</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C285" s="1">
         <v>2</v>
@@ -10448,13 +11294,16 @@
       <c r="M285" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="286" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N285">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="286" spans="1:14" ht="15.75" customHeight="1">
       <c r="A286" s="2">
-        <v>45123.777824074074</v>
+        <v>44758.777824074074</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C286" s="1">
         <v>3</v>
@@ -10466,7 +11315,7 @@
         <v>23</v>
       </c>
       <c r="G286" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H286" s="1">
         <v>0</v>
@@ -10483,10 +11332,13 @@
       <c r="M286" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="287" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N286">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="287" spans="1:14" ht="15.75" customHeight="1">
       <c r="A287" s="2">
-        <v>45123.778217592589</v>
+        <v>44758.778217592589</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>78</v>
@@ -10501,7 +11353,7 @@
         <v>28</v>
       </c>
       <c r="G287" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H287" s="1">
         <v>40</v>
@@ -10515,10 +11367,13 @@
       <c r="M287" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="288" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N287">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" ht="15.75" customHeight="1">
       <c r="A288" s="2">
-        <v>45123.778611111113</v>
+        <v>44758.778611111113</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>53</v>
@@ -10533,7 +11388,7 @@
         <v>43</v>
       </c>
       <c r="G288" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H288" s="1">
         <v>10</v>
@@ -10547,10 +11402,13 @@
       <c r="M288" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="289" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N288">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" ht="15.75" customHeight="1">
       <c r="A289" s="2">
-        <v>45123.779050925928</v>
+        <v>44758.779050925928</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>89</v>
@@ -10565,7 +11423,7 @@
         <v>56</v>
       </c>
       <c r="G289" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H289" s="1">
         <v>5</v>
@@ -10579,13 +11437,16 @@
       <c r="M289" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="290" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N289">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" ht="15.75" customHeight="1">
       <c r="A290" s="2">
-        <v>45123.779583333337</v>
+        <v>44758.779583333337</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C290" s="1">
         <v>2</v>
@@ -10611,13 +11472,16 @@
       <c r="M290" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="291" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N290">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" ht="15.75" customHeight="1">
       <c r="A291" s="2">
-        <v>45123.780138888891</v>
+        <v>44758.780138888891</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C291" s="1">
         <v>1</v>
@@ -10643,13 +11507,16 @@
       <c r="M291" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="292" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N291">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" ht="15.75" customHeight="1">
       <c r="A292" s="2">
-        <v>45123.780543981484</v>
+        <v>44758.780543981484</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C292" s="1">
         <v>2</v>
@@ -10661,7 +11528,7 @@
         <v>43</v>
       </c>
       <c r="G292" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H292" s="1">
         <v>-2</v>
@@ -10675,10 +11542,13 @@
       <c r="M292" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="293" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N292">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" ht="15.75" customHeight="1">
       <c r="A293" s="2">
-        <v>45123.781134259261</v>
+        <v>44758.781134259261</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>42</v>
@@ -10690,7 +11560,7 @@
         <v>4</v>
       </c>
       <c r="E293" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>44</v>
@@ -10707,13 +11577,16 @@
       <c r="M293" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="294" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N293">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" ht="15.75" customHeight="1">
       <c r="A294" s="2">
-        <v>45123.792002314818</v>
+        <v>44758.792002314818</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C294" s="1">
         <v>1</v>
@@ -10725,7 +11598,7 @@
         <v>31</v>
       </c>
       <c r="G294" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H294" s="1">
         <v>1</v>
@@ -10739,13 +11612,16 @@
       <c r="M294" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="295" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N294">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" ht="15.75" customHeight="1">
       <c r="A295" s="2">
-        <v>45123.792303240742</v>
+        <v>44758.792303240742</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C295" s="1">
         <v>2</v>
@@ -10754,10 +11630,10 @@
         <v>9</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G295" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H295" s="1">
         <v>1</v>
@@ -10771,10 +11647,13 @@
       <c r="M295" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="296" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N295">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" ht="15.75" customHeight="1">
       <c r="A296" s="2">
-        <v>45123.792824074073</v>
+        <v>44758.792824074073</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>27</v>
@@ -10786,10 +11665,10 @@
         <v>8</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G296" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H296" s="1">
         <v>9</v>
@@ -10803,10 +11682,13 @@
       <c r="M296" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="297" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N296">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" ht="15.75" customHeight="1">
       <c r="A297" s="2">
-        <v>45123.793182870373</v>
+        <v>44758.793182870373</v>
       </c>
       <c r="B297" s="1">
         <v>50</v>
@@ -10818,10 +11700,10 @@
         <v>10</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G297" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H297" s="1">
         <v>5</v>
@@ -10835,13 +11717,16 @@
       <c r="M297" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="298" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N297">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" ht="15.75" customHeight="1">
       <c r="A298" s="2">
-        <v>45123.801655092589</v>
+        <v>44758.801655092589</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C298" s="1">
         <v>2</v>
@@ -10850,7 +11735,7 @@
         <v>5</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G298" s="1" t="s">
         <v>32</v>
@@ -10867,10 +11752,13 @@
       <c r="M298" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="299" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N298">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" ht="15.75" customHeight="1">
       <c r="A299" s="2">
-        <v>45123.802094907405</v>
+        <v>44758.802094907405</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>81</v>
@@ -10885,7 +11773,7 @@
         <v>54</v>
       </c>
       <c r="G299" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H299" s="1">
         <v>16</v>
@@ -10899,10 +11787,13 @@
       <c r="M299" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="300" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N299">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" ht="15.75" customHeight="1">
       <c r="A300" s="2">
-        <v>45123.802800925929</v>
+        <v>44758.802800925929</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>87</v>
@@ -10917,7 +11808,7 @@
         <v>54</v>
       </c>
       <c r="G300" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H300" s="1">
         <v>25</v>
@@ -10931,13 +11822,16 @@
       <c r="M300" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="301" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N300">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" ht="15.75" customHeight="1">
       <c r="A301" s="2">
-        <v>45123.808946759258</v>
+        <v>44758.808946759258</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C301" s="1">
         <v>1</v>
@@ -10966,13 +11860,16 @@
       <c r="M301" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="302" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N301">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" ht="15.75" customHeight="1">
       <c r="A302" s="2">
-        <v>45123.809398148151</v>
+        <v>44758.809398148151</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C302" s="1">
         <v>1</v>
@@ -10984,7 +11881,7 @@
         <v>28</v>
       </c>
       <c r="G302" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H302" s="1">
         <v>1</v>
@@ -10998,10 +11895,13 @@
       <c r="M302" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="303" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N302">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" ht="15.75" customHeight="1">
       <c r="A303" s="2">
-        <v>45123.809895833336</v>
+        <v>44758.809895833336</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>96</v>
@@ -11030,13 +11930,16 @@
       <c r="M303" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="304" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N303">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" ht="15.75" customHeight="1">
       <c r="A304" s="2">
-        <v>45123.810416666667</v>
+        <v>44758.810416666667</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C304" s="1">
         <v>3</v>
@@ -11062,13 +11965,16 @@
       <c r="M304" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="305" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N304">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" ht="15.75" customHeight="1">
       <c r="A305" s="2">
-        <v>45123.811053240737</v>
+        <v>44758.811053240737</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C305" s="1">
         <v>4</v>
@@ -11097,13 +12003,16 @@
       <c r="M305" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N305">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" ht="15.75" customHeight="1">
       <c r="A306" s="2">
-        <v>45123.811689814815</v>
+        <v>44758.811689814815</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C306" s="1">
         <v>1</v>
@@ -11129,13 +12038,16 @@
       <c r="M306" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="307" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N306">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" ht="15.75" customHeight="1">
       <c r="A307" s="2">
-        <v>45123.812314814815</v>
+        <v>44758.812314814815</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C307" s="1">
         <v>2</v>
@@ -11164,10 +12076,13 @@
       <c r="M307" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="308" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N307">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" ht="15.75" customHeight="1">
       <c r="A308" s="2">
-        <v>45123.812835648147</v>
+        <v>44758.812835648147</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>76</v>
@@ -11179,10 +12094,10 @@
         <v>20</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G308" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H308" s="1">
         <v>0</v>
@@ -11199,13 +12114,16 @@
       <c r="M308" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="309" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N308">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" ht="15.75" customHeight="1">
       <c r="A309" s="2">
-        <v>45123.813171296293</v>
+        <v>44758.813171296293</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C309" s="1">
         <v>2</v>
@@ -11217,7 +12135,7 @@
         <v>54</v>
       </c>
       <c r="G309" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H309" s="1">
         <v>4</v>
@@ -11231,13 +12149,16 @@
       <c r="M309" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="310" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N309">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" ht="15.75" customHeight="1">
       <c r="A310" s="2">
-        <v>45123.813831018517</v>
+        <v>44758.813831018517</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C310" s="1">
         <v>3</v>
@@ -11249,7 +12170,7 @@
         <v>54</v>
       </c>
       <c r="G310" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H310" s="1">
         <v>20</v>
@@ -11263,10 +12184,13 @@
       <c r="M310" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="311" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N310">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" ht="15.75" customHeight="1">
       <c r="A311" s="2">
-        <v>45123.814270833333</v>
+        <v>44758.814270833333</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>53</v>
@@ -11295,13 +12219,16 @@
       <c r="M311" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="312" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N311">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" ht="15.75" customHeight="1">
       <c r="A312" s="2">
-        <v>45123.814965277779</v>
+        <v>44758.814965277779</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C312" s="1">
         <v>2</v>
@@ -11327,13 +12254,16 @@
       <c r="M312" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="313" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N312">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" ht="15.75" customHeight="1">
       <c r="A313" s="2">
-        <v>45123.815497685187</v>
+        <v>44758.815497685187</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C313" s="1">
         <v>3</v>
@@ -11345,7 +12275,7 @@
         <v>31</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H313" s="1">
         <v>6</v>
@@ -11359,13 +12289,16 @@
       <c r="M313" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="314" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N313">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" ht="15.75" customHeight="1">
       <c r="A314" s="2">
-        <v>45123.817337962966</v>
+        <v>44758.817337962966</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C314" s="1">
         <v>1</v>
@@ -11377,7 +12310,7 @@
         <v>40</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H314" s="1">
         <v>10</v>
@@ -11394,13 +12327,16 @@
       <c r="M314" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N314">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" ht="15.75" customHeight="1">
       <c r="A315" s="2">
-        <v>45123.8362037037</v>
+        <v>44758.8362037037</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C315" s="1">
         <v>1</v>
@@ -11426,13 +12362,16 @@
       <c r="M315" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="316" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N315">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" ht="15.75" customHeight="1">
       <c r="A316" s="2">
-        <v>45123.836585648147</v>
+        <v>44758.836585648147</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C316" s="1">
         <v>2</v>
@@ -11458,10 +12397,13 @@
       <c r="M316" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="317" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N316">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" ht="15.75" customHeight="1">
       <c r="A317" s="2">
-        <v>45123.837175925924</v>
+        <v>44758.837175925924</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>76</v>
@@ -11490,10 +12432,13 @@
       <c r="M317" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="318" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N317">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" ht="15.75" customHeight="1">
       <c r="A318" s="2">
-        <v>45123.837581018517</v>
+        <v>44758.837581018517</v>
       </c>
       <c r="B318" s="1">
         <v>50</v>
@@ -11522,10 +12467,13 @@
       <c r="M318" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="319" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N318">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" ht="15.75" customHeight="1">
       <c r="A319" s="2">
-        <v>45123.838067129633</v>
+        <v>44758.838067129633</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>79</v>
@@ -11540,7 +12488,7 @@
         <v>56</v>
       </c>
       <c r="G319" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H319" s="1">
         <v>5</v>
@@ -11549,7 +12497,7 @@
         <v>25</v>
       </c>
       <c r="K319" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L319" s="1" t="s">
         <v>34</v>
@@ -11557,10 +12505,13 @@
       <c r="M319" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="320" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N319">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" ht="15.75" customHeight="1">
       <c r="A320" s="2">
-        <v>45123.841956018521</v>
+        <v>44758.841956018521</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>83</v>
@@ -11592,13 +12543,16 @@
       <c r="M320" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="321" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N320">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" ht="15.75" customHeight="1">
       <c r="A321" s="2">
-        <v>45123.842291666668</v>
+        <v>44758.842291666668</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C321" s="1">
         <v>2</v>
@@ -11610,7 +12564,7 @@
         <v>31</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H321" s="1">
         <v>0</v>
@@ -11627,10 +12581,13 @@
       <c r="M321" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="322" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N321">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" ht="15.75" customHeight="1">
       <c r="A322" s="2">
-        <v>45123.84270833333</v>
+        <v>44758.84270833333</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>83</v>
@@ -11659,10 +12616,13 @@
       <c r="M322" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="323" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N322">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" ht="15.75" customHeight="1">
       <c r="A323" s="2">
-        <v>45123.843113425923</v>
+        <v>44758.843113425923</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>69</v>
@@ -11674,13 +12634,13 @@
         <v>9</v>
       </c>
       <c r="E323" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F323" s="1" t="s">
         <v>92</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H323" s="1">
         <v>1</v>
@@ -11694,10 +12654,13 @@
       <c r="M323" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="324" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N323">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" ht="15.75" customHeight="1">
       <c r="A324" s="2">
-        <v>45123.848645833335</v>
+        <v>44758.848645833335</v>
       </c>
       <c r="B324" s="1">
         <v>50</v>
@@ -11726,13 +12689,16 @@
       <c r="M324" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="325" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N324">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" ht="15.75" customHeight="1">
       <c r="A325" s="2">
-        <v>45123.849074074074</v>
+        <v>44758.849074074074</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C325" s="1">
         <v>2</v>
@@ -11758,10 +12724,13 @@
       <c r="M325" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="326" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N325">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" ht="15.75" customHeight="1">
       <c r="A326" s="2">
-        <v>45123.84951388889</v>
+        <v>44758.84951388889</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>35</v>
@@ -11773,7 +12742,7 @@
         <v>6</v>
       </c>
       <c r="E326" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G326" s="1" t="s">
         <v>90</v>
@@ -11793,10 +12762,13 @@
       <c r="M326" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="327" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N326">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" ht="15.75" customHeight="1">
       <c r="A327" s="2">
-        <v>45123.849849537037</v>
+        <v>44758.849849537037</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>30</v>
@@ -11811,7 +12783,7 @@
         <v>31</v>
       </c>
       <c r="G327" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H327" s="1">
         <v>-5</v>
@@ -11825,13 +12797,16 @@
       <c r="M327" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="328" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N327">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" ht="15.75" customHeight="1">
       <c r="A328" s="2">
-        <v>45123.859756944446</v>
+        <v>44758.859756944446</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C328" s="1">
         <v>1</v>
@@ -11857,13 +12832,16 @@
       <c r="M328" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="329" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N328">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" ht="15.75" customHeight="1">
       <c r="A329" s="2">
-        <v>45123.861539351848</v>
+        <v>44758.861539351848</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C329" s="1">
         <v>2</v>
@@ -11889,13 +12867,16 @@
       <c r="M329" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="330" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N329">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" ht="15.75" customHeight="1">
       <c r="A330" s="2">
-        <v>45123.861944444441</v>
+        <v>44758.861944444441</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C330" s="1">
         <v>3</v>
@@ -11907,10 +12888,10 @@
         <v>28</v>
       </c>
       <c r="F330" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H330" s="1">
         <v>20</v>
@@ -11924,13 +12905,16 @@
       <c r="M330" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="331" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N330">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" ht="15.75" customHeight="1">
       <c r="A331" s="2">
-        <v>45123.862395833334</v>
+        <v>44758.862395833334</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C331" s="1">
         <v>4</v>
@@ -11942,7 +12926,7 @@
         <v>54</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H331" s="1">
         <v>12</v>
@@ -11956,13 +12940,16 @@
       <c r="M331" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="332" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N331">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" ht="15.75" customHeight="1">
       <c r="A332" s="2">
-        <v>45123.862812500003</v>
+        <v>44758.862812500003</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C332" s="1">
         <v>1</v>
@@ -11988,13 +12975,16 @@
       <c r="M332" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="333" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N332">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" ht="15.75" customHeight="1">
       <c r="A333" s="2">
-        <v>45123.864722222221</v>
+        <v>44758.864722222221</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C333" s="1">
         <v>2</v>
@@ -12006,7 +12996,7 @@
         <v>31</v>
       </c>
       <c r="G333" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H333" s="1">
         <v>-7</v>
@@ -12020,13 +13010,16 @@
       <c r="M333" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="334" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N333">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" ht="15.75" customHeight="1">
       <c r="A334" s="2">
-        <v>45123.86509259259</v>
+        <v>44758.86509259259</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C334" s="1">
         <v>3</v>
@@ -12052,13 +13045,16 @@
       <c r="M334" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="335" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N334">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" ht="15.75" customHeight="1">
       <c r="A335" s="2">
-        <v>45123.865451388891</v>
+        <v>44758.865451388891</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C335" s="1">
         <v>1</v>
@@ -12070,7 +13066,7 @@
         <v>40</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H335" s="1">
         <v>2</v>
@@ -12087,12 +13083,15 @@
       <c r="M335" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="336" spans="1:13" ht="15.75" customHeight="1">
+      <c r="N335">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" ht="15.75" customHeight="1">
       <c r="D336" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:A336" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:N335" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12114,7 +13113,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>0</v>
@@ -12131,7 +13130,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
@@ -12145,7 +13144,7 @@
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
@@ -12187,7 +13186,7 @@
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>2</v>
@@ -12229,7 +13228,7 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
@@ -12243,7 +13242,7 @@
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>2</v>
@@ -12258,7 +13257,7 @@
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>6</v>
@@ -12303,7 +13302,7 @@
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1">
       <c r="A14" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
@@ -12318,7 +13317,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1">
       <c r="A15" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>2</v>
@@ -12333,7 +13332,7 @@
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1">
       <c r="A16" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>2</v>
@@ -12348,7 +13347,7 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>2</v>
@@ -12378,7 +13377,7 @@
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>2</v>
@@ -12393,7 +13392,7 @@
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>4</v>
@@ -12408,7 +13407,7 @@
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
@@ -12423,7 +13422,7 @@
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
@@ -12483,7 +13482,7 @@
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>5</v>
@@ -12498,7 +13497,7 @@
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>2</v>
@@ -12513,7 +13512,7 @@
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>2</v>
@@ -12528,7 +13527,7 @@
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>4</v>
@@ -12573,7 +13572,7 @@
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>2</v>
@@ -12618,7 +13617,7 @@
     </row>
     <row r="35" spans="1:7" ht="15.75" customHeight="1">
       <c r="A35" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>2</v>
@@ -12633,7 +13632,7 @@
     </row>
     <row r="36" spans="1:7" ht="15.75" customHeight="1">
       <c r="A36" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>4</v>
@@ -12648,7 +13647,7 @@
     </row>
     <row r="37" spans="1:7" ht="15.75" customHeight="1">
       <c r="A37" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>4</v>
@@ -12663,7 +13662,7 @@
     </row>
     <row r="38" spans="1:7" ht="12.75">
       <c r="A38" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>2</v>
@@ -12678,7 +13677,7 @@
     </row>
     <row r="39" spans="1:7" ht="12.75">
       <c r="A39" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>2</v>
@@ -12693,7 +13692,7 @@
     </row>
     <row r="40" spans="1:7" ht="12.75">
       <c r="A40" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>2</v>
@@ -12708,7 +13707,7 @@
     </row>
     <row r="41" spans="1:7" ht="12.75">
       <c r="A41" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>2</v>
@@ -12723,7 +13722,7 @@
     </row>
     <row r="42" spans="1:7" ht="12.75">
       <c r="A42" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>2</v>
@@ -12753,7 +13752,7 @@
     </row>
     <row r="44" spans="1:7" ht="12.75">
       <c r="A44" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>2</v>
@@ -12768,7 +13767,7 @@
     </row>
     <row r="45" spans="1:7" ht="12.75">
       <c r="A45" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>5</v>
@@ -12798,7 +13797,7 @@
     </row>
     <row r="47" spans="1:7" ht="12.75">
       <c r="A47" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>6</v>
@@ -12813,7 +13812,7 @@
     </row>
     <row r="48" spans="1:7" ht="12.75">
       <c r="A48" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>6</v>
@@ -12828,7 +13827,7 @@
     </row>
     <row r="49" spans="1:7" ht="12.75">
       <c r="A49" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>2</v>
@@ -12843,7 +13842,7 @@
     </row>
     <row r="50" spans="1:7" ht="12.75">
       <c r="A50" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>6</v>
@@ -12873,7 +13872,7 @@
     </row>
     <row r="52" spans="1:7" ht="14.25">
       <c r="A52" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>2</v>
@@ -12888,7 +13887,7 @@
     </row>
     <row r="53" spans="1:7" ht="12.75">
       <c r="A53" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>2</v>
@@ -12903,7 +13902,7 @@
     </row>
     <row r="54" spans="1:7" ht="12.75">
       <c r="A54" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>2</v>
@@ -12918,7 +13917,7 @@
     </row>
     <row r="55" spans="1:7" ht="12.75">
       <c r="A55" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>2</v>
@@ -12933,7 +13932,7 @@
     </row>
     <row r="56" spans="1:7" ht="12.75">
       <c r="A56" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>4</v>
@@ -12963,7 +13962,7 @@
     </row>
     <row r="58" spans="1:7" ht="12.75">
       <c r="A58" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>2</v>
@@ -12978,7 +13977,7 @@
     </row>
     <row r="59" spans="1:7" ht="12.75">
       <c r="A59" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>2</v>
@@ -12993,7 +13992,7 @@
     </row>
     <row r="60" spans="1:7" ht="12.75">
       <c r="A60" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>2</v>
@@ -13008,7 +14007,7 @@
     </row>
     <row r="61" spans="1:7" ht="12.75">
       <c r="A61" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>6</v>
@@ -13023,7 +14022,7 @@
     </row>
     <row r="62" spans="1:7" ht="12.75">
       <c r="A62" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>2</v>
@@ -13053,7 +14052,7 @@
     </row>
     <row r="64" spans="1:7" ht="12.75">
       <c r="A64" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>6</v>
@@ -13064,7 +14063,7 @@
     </row>
     <row r="65" spans="1:3" ht="12.75">
       <c r="A65" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>2</v>
@@ -13075,7 +14074,7 @@
     </row>
     <row r="66" spans="1:3" ht="12.75">
       <c r="A66" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>2</v>
@@ -13097,7 +14096,7 @@
     </row>
     <row r="68" spans="1:3" ht="12.75">
       <c r="A68" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>2</v>
@@ -13108,7 +14107,7 @@
     </row>
     <row r="69" spans="1:3" ht="12.75">
       <c r="A69" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>6</v>
@@ -13130,7 +14129,7 @@
     </row>
     <row r="71" spans="1:3" ht="12.75">
       <c r="A71" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>2</v>
@@ -13141,7 +14140,7 @@
     </row>
     <row r="72" spans="1:3" ht="12.75">
       <c r="A72" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>4</v>
@@ -13174,7 +14173,7 @@
     </row>
     <row r="75" spans="1:3" ht="12.75">
       <c r="A75" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>2</v>
@@ -13185,7 +14184,7 @@
     </row>
     <row r="76" spans="1:3" ht="12.75">
       <c r="A76" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>2</v>
@@ -13196,7 +14195,7 @@
     </row>
     <row r="77" spans="1:3" ht="12.75">
       <c r="A77" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>6</v>
